--- a/RT_radpat_60deg.xlsx
+++ b/RT_radpat_60deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-43.81711447546818</v>
+        <v>-43.81987977125393</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-44.51499161057364</v>
+        <v>-44.51662035367892</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-44.66962175550157</v>
+        <v>-44.6694789306036</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-44.15978894956339</v>
+        <v>-44.15791130710922</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-43.12985820402664</v>
+        <v>-43.12691017030099</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-41.84293279246037</v>
+        <v>-41.8395911640132</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-40.49974976553222</v>
+        <v>-40.49642607680175</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-39.20385847803889</v>
+        <v>-39.2007319605807</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-37.99611350790746</v>
+        <v>-37.99324191059792</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-36.88699773497227</v>
+        <v>-36.88438889574193</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-35.87435838960532</v>
+        <v>-35.87199778449624</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-34.95159551713159</v>
+        <v>-34.94946156541612</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-34.11114862007761</v>
+        <v>-34.10921761199467</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-33.34587646988233</v>
+        <v>-33.34412903512337</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-32.64954395140652</v>
+        <v>-32.64796466190232</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-32.01691585099491</v>
+        <v>-32.01548945433634</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-31.44371342314525</v>
+        <v>-31.44242779360114</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-30.92651904959728</v>
+        <v>-30.92536451736035</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-30.46268504934089</v>
+        <v>-30.46165286273488</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-30.05023875205828</v>
+        <v>-30.04932241570865</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-29.68782047745351</v>
+        <v>-29.68701448657417</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-29.37462584209356</v>
+        <v>-29.37392641759776</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-29.11037489383004</v>
+        <v>-29.10977927186327</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-28.89529498736424</v>
+        <v>-28.89480191546992</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-28.7301198571238</v>
+        <v>-28.72972782358444</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-28.61610857883781</v>
+        <v>-28.6158175963004</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-28.55508180196271</v>
+        <v>-28.55489371784064</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-28.54948156207707</v>
+        <v>-28.54939886532093</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-28.6024561188973</v>
+        <v>-28.60248308597177</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-28.71797758587699</v>
+        <v>-28.71811880897237</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-28.90099945144004</v>
+        <v>-28.9012618382325</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-29.15765880559514</v>
+        <v>-29.1580520246988</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-29.49554529105851</v>
+        <v>-29.49608092636831</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-29.92401868674212</v>
+        <v>-29.92470966677667</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-30.45456913531119</v>
+        <v>-30.45543569074635</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-31.1011280872154</v>
+        <v>-31.10218924900744</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-31.87998973669978</v>
+        <v>-31.88127068172945</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-32.80845812134955</v>
+        <v>-32.80997946229347</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-33.89948482381421</v>
+        <v>-33.90124922299753</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-35.14487574062903</v>
+        <v>-35.14682436957487</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-36.46882783424355</v>
+        <v>-36.47072296992462</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-37.62905906237492</v>
+        <v>-37.6303108956813</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-38.14936385033554</v>
+        <v>-38.14913466407512</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-37.6413378114941</v>
+        <v>-37.63947986804774</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-36.31409690812013</v>
+        <v>-36.31140034425193</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-34.68089443387499</v>
+        <v>-34.6780847761145</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-33.07106362325938</v>
+        <v>-33.06845164741389</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-31.60702228574418</v>
+        <v>-31.60468895062423</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.31501342408012</v>
+        <v>-30.31295547202515</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-29.1885987464909</v>
+        <v>-29.18679108604729</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-28.21314866445726</v>
+        <v>-28.21156055645388</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-27.37400400698471</v>
+        <v>-27.37260980084158</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-26.65883666260232</v>
+        <v>-26.65761548253633</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-26.05805829517085</v>
+        <v>-26.05699246427651</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-25.56465303065802</v>
+        <v>-25.56373088085729</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-25.17389697590541</v>
+        <v>-25.17310820162872</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-24.88310384485875</v>
+        <v>-24.88244156381518</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-24.69145394624035</v>
+        <v>-24.69091413739991</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-24.59990663971522</v>
+        <v>-24.59948652636906</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-24.61118353923263</v>
+        <v>-24.61088308357765</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-24.72982272239312</v>
+        <v>-24.72964266219077</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-24.96224607858347</v>
+        <v>-24.96218854621639</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-25.31676350207263</v>
+        <v>-25.31683235651161</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-25.80328816915639</v>
+        <v>-25.80348568883525</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-26.43217928940443</v>
+        <v>-26.4325048832973</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-27.21080008540208</v>
+        <v>-27.21124159908109</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-28.13427909745364</v>
+        <v>-28.13479674563065</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-29.16279773442881</v>
+        <v>-29.16328663421944</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-30.17410425093978</v>
+        <v>-30.17434247620191</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-30.90382650576987</v>
+        <v>-30.90346154680058</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-30.99706767239698</v>
+        <v>-30.99585099128615</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-30.30841683933129</v>
+        <v>-30.30652931924502</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-29.07799599614388</v>
+        <v>-29.07586467770664</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-27.6577572514699</v>
+        <v>-27.65568517546705</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-26.27143796485838</v>
+        <v>-26.26954788885224</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-25.01425558466845</v>
+        <v>-25.01257399780394</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-23.91499270374807</v>
+        <v>-23.9135106555325</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-22.97587394226037</v>
+        <v>-22.97457202621479</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-22.19054477926613</v>
+        <v>-22.18940434621302</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-21.55122371847944</v>
+        <v>-21.55022922388905</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-21.05134525801634</v>
+        <v>-21.05048368061071</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-20.68644038725261</v>
+        <v>-20.68570160200483</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-20.45435407897005</v>
+        <v>-20.45373094574375</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-20.35522458785633</v>
+        <v>-20.35471196125404</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-20.39133406983045</v>
+        <v>-20.39092731825851</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-20.56677079095254</v>
+        <v>-20.56646685466647</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-20.88663258591714</v>
+        <v>-20.88642584428453</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-21.35508924572871</v>
+        <v>-21.35497047706869</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-21.97077848992199</v>
+        <v>-21.97072678225541</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-22.71626058800877</v>
+        <v>-22.71623191098022</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-23.53588372861324</v>
+        <v>-23.53578988694006</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-24.29866475467441</v>
+        <v>-24.29835174570968</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-24.7719278862254</v>
+        <v>-24.77120437660124</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-24.69902322490052</v>
+        <v>-24.69780644271717</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-24.01098586732063</v>
+        <v>-24.00941612257495</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-22.9012111171283</v>
+        <v>-22.89952978545655</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-21.63616388966395</v>
+        <v>-21.63454007383857</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-20.39842978521083</v>
+        <v>-20.39693638522085</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-19.27696597257607</v>
+        <v>-19.2756211099197</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-18.30600577418266</v>
+        <v>-18.30480468256618</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.49487933403472</v>
+        <v>-17.49381096678975</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-16.8434324734148</v>
+        <v>-16.84248365880926</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-16.34898204910912</v>
+        <v>-16.34814184652221</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-16.00925406172934</v>
+        <v>-16.00851274865079</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-15.82349801111099</v>
+        <v>-15.82284730374365</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-15.79268891158146</v>
+        <v>-15.7921212479526</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-15.91902351272958</v>
+        <v>-15.91853065366588</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-16.20436590465565</v>
+        <v>-16.20393730960295</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-16.64654528271853</v>
+        <v>-16.64616418205264</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-17.23107725241702</v>
+        <v>-17.23071431492659</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-17.91397066276553</v>
+        <v>-17.91357362465653</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-18.59184255184238</v>
+        <v>-18.59132744013021</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-19.07283979906948</v>
+        <v>-19.07210307702555</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-19.11343440942246</v>
+        <v>-19.11242159472656</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-18.58272389468343</v>
+        <v>-18.58150364669438</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-17.59183449246419</v>
+        <v>-17.59055300728084</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-16.38349867159525</v>
+        <v>-16.382270076529</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-15.159382342572</v>
+        <v>-15.15825894098434</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-14.03191459890154</v>
+        <v>-14.03090902767739</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-13.0509031636661</v>
+        <v>-13.05001091766876</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-12.23453597070368</v>
+        <v>-12.23374769400718</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-11.58777944877991</v>
+        <v>-11.58708508446474</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-11.11137082634995</v>
+        <v>-11.11076202546953</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-10.80589459226739</v>
+        <v>-10.8053641859706</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-10.67349229833603</v>
+        <v>-10.67303414992808</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-10.71827603684108</v>
+        <v>-10.71788437297688</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-10.94551406690138</v>
+        <v>-10.94518217441325</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-11.35856576106736</v>
+        <v>-11.35828321421788</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-11.9505569733771</v>
+        <v>-11.95030487324402</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-12.68390565392369</v>
+        <v>-12.68364645092006</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-13.44682987656323</v>
+        <v>-13.44649497273387</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-13.99367437962425</v>
+        <v>-13.99316718705265</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-13.97322287525923</v>
+        <v>-13.97248756976892</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-13.19858680071484</v>
+        <v>-13.19769494717909</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-11.86468642776002</v>
+        <v>-11.86377451248777</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-10.31998450381717</v>
+        <v>-10.31914039078157</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-8.803040487192375</v>
+        <v>-8.802293052134079</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-7.419766466934336</v>
+        <v>-7.41911593866881</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-6.203308645476701</v>
+        <v>-6.202746529395806</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-5.156620342885644</v>
+        <v>-5.156136795305477</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-4.272323832685939</v>
+        <v>-4.271910345037115</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-3.540737013058573</v>
+        <v>-3.540386700887875</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-2.95285732133559</v>
+        <v>-2.952564779619471</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-2.501344322564597</v>
+        <v>-2.501105338293237</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-2.180746586251542</v>
+        <v>-2.180557924620104</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.987471371193857</v>
+        <v>-1.987330501274611</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.91969328079582</v>
+        <v>-1.919598228381309</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.977278313809934</v>
+        <v>-1.977227421309403</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.161749276046592</v>
+        <v>-2.161741043871627</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-2.476297370810546</v>
+        <v>-2.476330270837202</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-2.925828282615736</v>
+        <v>-2.925900345652317</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-3.517008367898945</v>
+        <v>-3.517116685762137</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-4.258225463115044</v>
+        <v>-4.258365255231182</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.159259811251163</v>
+        <v>-5.159422876927489</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-6.230178317254584</v>
+        <v>-6.230350234431293</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-7.478303794497384</v>
+        <v>-7.478458856822439</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-8.90063629639317</v>
+        <v>-8.900728704850902</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-10.46635014378751</v>
+        <v>-10.4663012326469</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-12.08200089882813</v>
+        <v>-12.08169142756001</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-13.54682656985794</v>
+        <v>-13.54613038379748</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-14.57361131885008</v>
+        <v>-14.57252057150031</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-14.98806029517453</v>
+        <v>-14.98678188183302</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-14.92389066310185</v>
+        <v>-14.92269815184135</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-14.68880526437552</v>
+        <v>-14.68785271391848</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-14.53555371368291</v>
+        <v>-14.53488028919925</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-14.61000830018406</v>
+        <v>-14.60960691198101</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-14.99585571599836</v>
+        <v>-14.99571633613928</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-15.76168030668287</v>
+        <v>-15.76180818821198</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-16.99812937927696</v>
+        <v>-16.99856011894289</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-18.86517613324983</v>
+        <v>-18.86600317445342</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-21.70356991576374</v>
+        <v>-21.70503436200272</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-26.46281139793786</v>
+        <v>-26.46573528879792</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-38.68952201675165</v>
+        <v>-38.70241039779798</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-32.47658739530142</v>
+        <v>-32.47018403767964</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-24.88665974385402</v>
+        <v>-24.8840565849965</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-21.26749991149466</v>
+        <v>-21.26590684503038</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-19.11101932915377</v>
+        <v>-19.10992366393988</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-17.79072074616935</v>
+        <v>-17.78994195617884</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-17.06312726622595</v>
+        <v>-17.06258356426038</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-16.82097778899804</v>
+        <v>-16.82063027888429</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-17.02463569771387</v>
+        <v>-17.0244696493879</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-17.68142590676385</v>
+        <v>-17.68144433978156</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-18.846282222841</v>
+        <v>-18.84651040451273</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-20.64108821726262</v>
+        <v>-20.64158308514395</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-23.29716397169197</v>
+        <v>-23.29804186572346</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-27.1246207665804</v>
+        <v>-27.12601180508448</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-30.64922685862621</v>
+        <v>-30.64979677856168</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-28.11926723867387</v>
+        <v>-28.11801793667522</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-24.31125788516943</v>
+        <v>-24.31018835523409</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-21.68899398807165</v>
+        <v>-21.68823336140347</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-19.99243421040457</v>
+        <v>-19.99190958131359</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-18.96882984158598</v>
+        <v>-18.96849254235893</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-18.48368285579048</v>
+        <v>-18.48350913499107</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-18.47545482710798</v>
+        <v>-18.47543674232683</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-18.9313421867812</v>
+        <v>-18.93148640602557</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-19.87974564650866</v>
+        <v>-19.88007489702426</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-21.39113804111651</v>
+        <v>-21.39169791623081</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-23.564555200231</v>
+        <v>-23.56541409450999</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-26.3420117423126</v>
+        <v>-26.34316411257797</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-28.42054232882825</v>
+        <v>-28.42128993808678</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-27.25600999923377</v>
+        <v>-27.25569617678646</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-24.59864147894519</v>
+        <v>-24.59809702981057</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-22.39505887323366</v>
+        <v>-22.39462685791917</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-20.87841090294649</v>
+        <v>-20.87813693877215</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-19.95896818819276</v>
+        <v>-19.95884893584102</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-19.5561207440432</v>
+        <v>-19.55615394953466</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-19.62972837236519</v>
+        <v>-19.6299205066454</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-20.17637066108244</v>
+        <v>-20.17674164610053</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-21.22463102210597</v>
+        <v>-21.22522012736113</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-22.82199162968292</v>
+        <v>-22.82286251783721</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-24.95252916894412</v>
+        <v>-24.95374874130148</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-27.12297273249182</v>
+        <v>-27.12436449760459</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-27.6535447542029</v>
+        <v>-27.65429982603845</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-25.96820852538742</v>
+        <v>-25.96823895230189</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-23.84700602982273</v>
+        <v>-23.84685466188579</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-22.18218816076209</v>
+        <v>-22.18208584340043</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-21.08396298435033</v>
+        <v>-21.08397681351662</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-20.51148022518032</v>
+        <v>-20.51163272474121</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-20.4269029299414</v>
+        <v>-20.42721152651634</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-20.8188708841251</v>
+        <v>-20.81936034690547</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-21.70173177917377</v>
+        <v>-21.70243976919156</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-23.09988327201047</v>
+        <v>-23.10086135496294</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-24.96975847223618</v>
+        <v>-24.97103374190621</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-26.88034563164801</v>
+        <v>-26.88169542253997</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-27.5266531490384</v>
+        <v>-27.52735511531533</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-26.25165039580006</v>
+        <v>-26.25159083773385</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-24.36666169801112</v>
+        <v>-24.3663768872012</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-22.79760598854849</v>
+        <v>-22.79736913245662</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-21.744204871729</v>
+        <v>-21.74409484446836</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-21.2034446540701</v>
+        <v>-21.20348592891659</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-21.15155532301461</v>
+        <v>-21.15176412887611</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-21.58136090405382</v>
+        <v>-21.58175972374308</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-22.50309764701346</v>
+        <v>-22.50371866689239</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-23.91799853971303</v>
+        <v>-23.91887955315664</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-25.70219550395068</v>
+        <v>-25.70331904201442</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-27.24817113904026</v>
+        <v>-27.24923475568061</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-27.35397468610185</v>
+        <v>-27.35442377345341</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-25.9626017143936</v>
+        <v>-25.96253306902442</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-24.27468207092156</v>
+        <v>-24.2744903151667</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-22.9434315863054</v>
+        <v>-22.94330205485382</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-22.11020458146013</v>
+        <v>-22.11019942490181</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-21.77794519767728</v>
+        <v>-21.77808803333301</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-21.93596632186303</v>
+        <v>-21.93627387208052</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-22.58576784190813</v>
+        <v>-22.58625979671652</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-23.73095810960026</v>
+        <v>-23.73164950954659</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-25.3106152276286</v>
+        <v>-25.3114722917608</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-26.96510421790173</v>
+        <v>-26.96589997255115</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-27.70271067371804</v>
+        <v>-27.7029478459035</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-26.83522800852606</v>
+        <v>-26.83486963971204</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-25.22800456801336</v>
+        <v>-25.22749953147856</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-23.78687869598462</v>
+        <v>-23.78646888400725</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-22.80382245778009</v>
+        <v>-22.80357613365558</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-22.32244806942646</v>
+        <v>-22.32238159467358</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-22.33731815604321</v>
+        <v>-22.3374409681723</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-22.84556582559592</v>
+        <v>-22.8458944426492</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-23.84566318458296</v>
+        <v>-23.84621882847769</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-25.2847754899844</v>
+        <v>-25.28556474712722</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-26.87262198505169</v>
+        <v>-26.87352443025</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-27.77151479457665</v>
+        <v>-27.7721321066694</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-27.19456261118295</v>
+        <v>-27.19464253500652</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-25.73608213409228</v>
+        <v>-25.73589635166825</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-24.32447964746838</v>
+        <v>-24.3242913222536</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-23.33061299943742</v>
+        <v>-23.3305282958874</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-22.83159336663675</v>
+        <v>-22.83165205406723</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-22.83222549421597</v>
+        <v>-22.83244889843075</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-23.33088133769396</v>
+        <v>-23.33128842679669</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-24.3208575429896</v>
+        <v>-24.32146017060332</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-25.73216927729568</v>
+        <v>-25.7329376522128</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-27.23648630665593</v>
+        <v>-27.23722592068357</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-27.98649082550475</v>
+        <v>-27.98677064047504</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-27.32668903292851</v>
+        <v>-27.32640497921031</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-25.90725923798907</v>
+        <v>-25.90677794770539</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-24.58028382732488</v>
+        <v>-24.57985482798722</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-23.67868083859573</v>
+        <v>-23.67838597721538</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-23.27484936153936</v>
+        <v>-23.27470840451895</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-23.3763089596309</v>
+        <v>-23.37632259543488</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-23.98219616945288</v>
+        <v>-23.98235678827195</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-25.07477645194795</v>
+        <v>-25.07504741920549</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-26.53299639308162</v>
+        <v>-26.53325327115888</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-27.88905991842738</v>
+        <v>-27.88899492338129</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-28.21952862909669</v>
+        <v>-28.21886959623658</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-27.24202993858834</v>
+        <v>-27.24107210291344</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-25.81603540745919</v>
+        <v>-25.81515696935644</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-24.63013343050466</v>
+        <v>-24.6294601246216</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-23.90898305069777</v>
+        <v>-23.90852406197352</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-23.69667156143436</v>
+        <v>-23.69641766349599</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-23.99799740953759</v>
+        <v>-23.99794190974246</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-24.80982268606518</v>
+        <v>-24.80996336240048</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-26.08785790414827</v>
+        <v>-26.08818061250273</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-27.60011115313729</v>
+        <v>-27.60051906995293</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-28.63964754758756</v>
+        <v>-28.63986825155406</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-28.35532254560155</v>
+        <v>-28.35516725543377</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-27.07452083640291</v>
+        <v>-27.07418944889917</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-25.72614506972005</v>
+        <v>-25.72585028910801</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-24.76679755410816</v>
+        <v>-24.76662493777344</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-24.31405339327723</v>
+        <v>-24.3140320364917</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-24.38668092408672</v>
+        <v>-24.38682843833421</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-24.98509322405549</v>
+        <v>-24.98542603079596</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-26.08741975057528</v>
+        <v>-26.08795617497398</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-27.55479972025299</v>
+        <v>-27.55552276907855</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-28.87068621419614</v>
+        <v>-28.87143851577548</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-29.089487411422</v>
+        <v>-29.08997763188902</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-28.04507865765427</v>
+        <v>-28.04531140615388</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-26.64993465986028</v>
+        <v>-26.65012640575963</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-25.55183082701824</v>
+        <v>-25.5521207411373</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-24.95077872218429</v>
+        <v>-24.95122994593372</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-24.88594296842214</v>
+        <v>-24.88659730594774</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-25.36252459530746</v>
+        <v>-25.36342127556302</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-26.36848529282301</v>
+        <v>-26.36964625638689</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-27.80236268257338</v>
+        <v>-27.80372411100289</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-29.23180157826648</v>
+        <v>-29.23298569316645</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-29.69714790118041</v>
+        <v>-29.69748021513697</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-28.77416072694378</v>
+        <v>-28.7736831190854</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-27.33405847858457</v>
+        <v>-27.33335451386777</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-26.14122882476533</v>
+        <v>-26.14061316987403</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-25.44703086811232</v>
+        <v>-25.44659843847831</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-25.30104505268072</v>
+        <v>-25.30081693639963</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-25.70965889551482</v>
+        <v>-25.70963114599059</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-26.66524946634055</v>
+        <v>-26.66538518114295</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-28.08616897445203</v>
+        <v>-28.08633248364082</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-29.58852182498294</v>
+        <v>-29.58831959549502</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-30.21592819752475</v>
+        <v>-30.21486303709229</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-29.38483805364763</v>
+        <v>-29.38319946221182</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-27.92628960783699</v>
+        <v>-27.92468221236653</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-26.68375703584634</v>
+        <v>-26.68239274899955</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-25.94370250610296</v>
+        <v>-25.94259078786262</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-25.76078800624838</v>
+        <v>-25.75989719397404</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-26.13785382432228</v>
+        <v>-26.13714760913732</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-27.05883906689089</v>
+        <v>-27.05827888149465</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-28.42472230303625</v>
+        <v>-28.42424075645126</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-29.82667250904294</v>
+        <v>-29.82612913964957</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-30.3376712494081</v>
+        <v>-30.3369352624033</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-29.48044411715239</v>
+        <v>-29.47964081781005</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-28.06785706273038</v>
+        <v>-28.06716218486235</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-26.88032169853107</v>
+        <v>-26.8797878113467</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-26.18822569731618</v>
+        <v>-26.18785517611274</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-26.04790010766836</v>
+        <v>-26.04768471401716</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-26.46589296627502</v>
+        <v>-26.46583023831691</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-27.42880404083364</v>
+        <v>-27.42888928452924</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-28.83699119515432</v>
+        <v>-28.83719981031107</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-30.27115733355569</v>
+        <v>-30.27138312992404</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-30.78792121294817</v>
+        <v>-30.78798110536671</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-29.9331815076881</v>
+        <v>-29.9330972361089</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-28.55030289385408</v>
+        <v>-28.55024847753218</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-27.41577744581836</v>
+        <v>-27.41584714680479</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-26.79416040139503</v>
+        <v>-26.79439665581129</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-26.74291120085594</v>
+        <v>-26.74333881395704</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-27.27414584027022</v>
+        <v>-27.27479379711492</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-28.38016703697754</v>
+        <v>-28.38105851983306</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-29.94696776592403</v>
+        <v>-29.94805543656062</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-31.44787587781112</v>
+        <v>-31.4488337302772</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-31.75913529601024</v>
+        <v>-31.75942254111828</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-30.62265496852689</v>
+        <v>-30.62241178262409</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-29.13894301206387</v>
+        <v>-29.13862752826082</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-28.03740829854923</v>
+        <v>-28.03723154322932</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-27.51481284229101</v>
+        <v>-27.51483961716515</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-27.60569414839784</v>
+        <v>-27.60595104375215</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-28.32181623587531</v>
+        <v>-28.32231519749998</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-29.65640970405834</v>
+        <v>-29.65712019709255</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-31.43932837881661</v>
+        <v>-31.44002754704125</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-32.86636477043996</v>
+        <v>-32.86634522178319</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-32.59291289768751</v>
+        <v>-32.59180145766428</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-30.99331988869671</v>
+        <v>-30.99191690193923</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-29.40952532231814</v>
+        <v>-29.40832795909713</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-28.37177019743941</v>
+        <v>-28.3708650723845</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-27.96657856394816</v>
+        <v>-27.96595538805916</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-28.19292184000118</v>
+        <v>-28.19256261676448</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-29.04552117413273</v>
+        <v>-29.04541492955869</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-30.47923298888588</v>
+        <v>-30.47934494443558</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-32.1929630499639</v>
+        <v>-32.19312329623568</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-33.17799318551759</v>
+        <v>-33.17777599913578</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-32.45642878585814</v>
+        <v>-32.4557459627455</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-30.86944528049726</v>
+        <v>-30.86869589171121</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-29.50097707355205</v>
+        <v>-29.5003702676502</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-28.70304394733944</v>
+        <v>-28.70263217238907</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-28.53180619070466</v>
+        <v>-28.5315953099734</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-28.99015536337411</v>
+        <v>-28.99014515754519</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-30.06895377354589</v>
+        <v>-30.06912188318502</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-31.66013891203101</v>
+        <v>-31.66037655739164</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-33.21725206214462</v>
+        <v>-33.21719293655753</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-33.49856975500582</v>
+        <v>-33.49782402739256</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-32.22686188704364</v>
+        <v>-32.22580335437742</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-30.63220561361696</v>
+        <v>-30.63126586697538</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-29.46889617082279</v>
+        <v>-29.46818822878406</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-28.91771813934689</v>
+        <v>-28.91724883666426</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-29.00500262374279</v>
+        <v>-29.00476610901985</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-29.7473615322664</v>
+        <v>-29.7473628852766</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-31.16549035933285</v>
+        <v>-31.16574206002456</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-33.16607564785031</v>
+        <v>-33.16653509088061</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-35.02023635078163</v>
+        <v>-35.02058518237978</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-35.03442282023792</v>
+        <v>-35.03421840395015</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-33.3493380183111</v>
+        <v>-33.34891668225504</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-31.64599979062988</v>
+        <v>-31.64570163920979</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-30.56835889005978</v>
+        <v>-30.56828056824293</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-30.2010662386741</v>
+        <v>-30.2012442653548</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-30.54479661546773</v>
+        <v>-30.54527215072494</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-31.62031141004692</v>
+        <v>-31.62114849502472</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-33.43574885407153</v>
+        <v>-33.437012711144</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-35.66936842417999</v>
+        <v>-35.67086050533268</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-36.72731678922094</v>
+        <v>-36.72794483380451</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-35.2940168269616</v>
+        <v>-35.29354565645971</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-33.19267137177407</v>
+        <v>-33.19203081666524</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-31.65683798436982</v>
+        <v>-31.65638196581521</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-30.87035239062184</v>
+        <v>-30.87016191943077</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-30.81490204398241</v>
+        <v>-30.81501530676967</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-31.48764057145914</v>
+        <v>-31.48810940551906</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-32.92246686013332</v>
+        <v>-32.92337249630775</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-35.0885701639932</v>
+        <v>-35.08995820562613</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-37.29132823023807</v>
+        <v>-37.29266956726496</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-37.35698743775676</v>
+        <v>-37.35694323541828</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-35.32177678924867</v>
+        <v>-35.32094071803547</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-33.35273399955096</v>
+        <v>-33.35191936810097</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-32.12793209655686</v>
+        <v>-32.12734160650341</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-31.68200919421538</v>
+        <v>-31.68167834767141</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-31.99415318985807</v>
+        <v>-31.99409373488147</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-33.09133309433022</v>
+        <v>-33.09156570312934</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-35.0300326478635</v>
+        <v>-35.03052531157031</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-37.60560730732669</v>
+        <v>-37.6059868027935</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-39.05291166428322</v>
+        <v>-39.05193662391752</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-37.39398068768543</v>
+        <v>-37.39217116141501</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-34.9771617445282</v>
+        <v>-34.97565337516585</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-33.27499122155905</v>
+        <v>-33.27390240436662</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-32.41646051985705</v>
+        <v>-32.41572564683592</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-32.35119920623155</v>
+        <v>-32.35077525495277</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-33.07954394781786</v>
+        <v>-33.07941423400064</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-34.6823260277331</v>
+        <v>-34.68250467865502</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-37.26655634500202</v>
+        <v>-37.2670260509522</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-40.24620798343232</v>
+        <v>-40.24650436530304</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-40.22666782919897</v>
+        <v>-40.22597594967184</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-37.35823310377065</v>
+        <v>-37.35755480186906</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-34.95399874170069</v>
+        <v>-34.95370987536673</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-33.53490927219122</v>
+        <v>-33.5350092677693</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-32.99457636008731</v>
+        <v>-32.99506793130273</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-33.26370844413673</v>
+        <v>-33.26465031036523</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-34.3641356482878</v>
+        <v>-34.3656345495867</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-36.39464662462161</v>
+        <v>-36.39686331557702</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-39.30440619097234</v>
+        <v>-39.30709720233318</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-41.30310790772282</v>
+        <v>-41.30341971942375</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-39.44277600121264</v>
+        <v>-39.4403208717487</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-36.66454307932348</v>
+        <v>-36.66223999931491</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-34.76713311572085</v>
+        <v>-34.76543646492476</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-33.80514196740482</v>
+        <v>-33.80399130529538</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-33.68481909535775</v>
+        <v>-33.68415183495006</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-34.39622388032928</v>
+        <v>-34.39600961882513</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-36.04205420715823</v>
+        <v>-36.04226983879265</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-38.83816727480978</v>
+        <v>-38.8385299850698</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-42.52449691704024</v>
+        <v>-42.52268123741474</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-42.8142290348678</v>
+        <v>-42.80768930075606</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-39.29371702713386</v>
+        <v>-39.28872703280342</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-36.54638885927323</v>
+        <v>-36.54300619946461</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-34.97015288185013</v>
+        <v>-34.96772923255739</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-34.34985165434659</v>
+        <v>-34.34807240316434</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-34.5801962707911</v>
+        <v>-34.57891084666747</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-35.67483581627976</v>
+        <v>-35.67396971353008</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-37.73823009603993</v>
+        <v>-37.7376535201169</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-40.70107653621384</v>
+        <v>-40.70010449937628</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-42.48013862265572</v>
+        <v>-42.47683487717072</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-40.22555391971691</v>
+        <v>-40.22179073111487</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-37.33241055568399</v>
+        <v>-37.32962297887125</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-35.38751896779054</v>
+        <v>-35.38548189774087</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-34.37300706808522</v>
+        <v>-34.37152573631153</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-34.17873862790871</v>
+        <v>-34.17773507805432</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-34.78017379570014</v>
+        <v>-34.77966007541009</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-36.24668473120786</v>
+        <v>-36.24675483760826</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-38.70307408836693</v>
+        <v>-38.70390511548423</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-41.76886900851041</v>
+        <v>-41.77015388252612</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-42.21725267864346</v>
+        <v>-42.21650204292944</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-39.28708267774124</v>
+        <v>-39.28521564151509</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-36.63471160731847</v>
+        <v>-36.6330369240847</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-34.96884133593268</v>
+        <v>-34.96754092939404</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-34.17060133228809</v>
+        <v>-34.16968672605052</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-34.13898833815929</v>
+        <v>-34.13847199035813</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-34.85350194641917</v>
+        <v>-34.85340925580977</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-36.3586756025928</v>
+        <v>-36.35900356392946</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-38.66867709702125</v>
+        <v>-38.66908221719544</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-41.13409455997956</v>
+        <v>-41.13262384313804</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-41.24784535433393</v>
+        <v>-41.24256168866783</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-38.97121405667783</v>
+        <v>-38.96555444893357</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-36.83269013624874</v>
+        <v>-36.82794389280733</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-35.51237883339145</v>
+        <v>-35.50839361758145</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-35.01082975214345</v>
+        <v>-35.00736867164436</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-35.30387330558521</v>
+        <v>-35.30074685775854</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-36.45236115232979</v>
+        <v>-36.44935557179141</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-38.64185938403272</v>
+        <v>-38.63851348583023</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-42.09496452581827</v>
+        <v>-42.0895203659036</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-44.97714098262241</v>
+        <v>-44.96581113198389</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-42.22673386549364</v>
+        <v>-42.21804432397581</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-38.64812836561323</v>
+        <v>-38.64255650592239</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-36.31803349729401</v>
+        <v>-36.31376313772643</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-35.01973561077042</v>
+        <v>-35.01608270373426</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-34.54759048047286</v>
+        <v>-34.54426493494631</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-34.81471182701067</v>
+        <v>-34.81153689378229</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-35.81284839801105</v>
+        <v>-35.80967176992093</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-37.54606158426107</v>
+        <v>-37.54269846464845</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-39.73065692758754</v>
+        <v>-39.72690816069326</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-40.84958572929029</v>
+        <v>-40.84588537152244</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-39.41276746001718</v>
+        <v>-39.40996617419258</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-37.15868846143115</v>
+        <v>-37.15649531385431</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-35.41395323695814</v>
+        <v>-35.41202911834352</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-34.38259900898458</v>
+        <v>-34.38080273763654</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-34.03715002487341</v>
+        <v>-34.03541858819401</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-34.36012175703956</v>
+        <v>-34.35840402741946</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-35.38259981050317</v>
+        <v>-35.38083775054157</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-37.17344160577371</v>
+        <v>-37.1714918282534</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-39.66974883190654</v>
+        <v>-39.66726734489209</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-41.69779839550634</v>
+        <v>-41.69443410552282</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-40.7433282337749</v>
+        <v>-40.74024014438923</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-38.230222268991</v>
+        <v>-38.22793200815596</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-36.18781887913802</v>
+        <v>-36.18599616212552</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-34.92689510735479</v>
+        <v>-34.9253419596777</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-34.38776874236831</v>
+        <v>-34.38640490547711</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-34.51645502525607</v>
+        <v>-34.51524360734804</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-35.3034626810129</v>
+        <v>-35.302372653212</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-36.75513480649863</v>
+        <v>-36.75406649642729</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-38.73246375394582</v>
+        <v>-38.73106051296438</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-40.34372298779104</v>
+        <v>-40.3410877147048</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-39.89115258606826</v>
+        <v>-39.8872784987303</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-37.91914097369532</v>
+        <v>-37.91529508380037</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-36.04288557515596</v>
+        <v>-36.03942550371525</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-34.76599051062304</v>
+        <v>-34.76283070440331</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-34.12474794930367</v>
+        <v>-34.12177241666009</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-34.0921383099454</v>
+        <v>-34.08924515441043</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-34.66035814659327</v>
+        <v>-34.65744602226394</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-35.83945125466762</v>
+        <v>-35.83638496973432</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-37.58029608830149</v>
+        <v>-37.57685755155845</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-39.43778199033617</v>
+        <v>-39.43373083152083</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-40.02535146145186</v>
+        <v>-40.02110055044862</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-38.65955714939465</v>
+        <v>-38.65592918295781</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-36.7529648136398</v>
+        <v>-36.74988141774857</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-35.24675852520587</v>
+        <v>-35.24393131591345</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-34.32851127747042</v>
+        <v>-34.32576025422755</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-33.99269112387901</v>
+        <v>-33.9899016166515</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-34.21986944206941</v>
+        <v>-34.21693206463542</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-35.00532936872726</v>
+        <v>-35.00210992282818</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-36.33090359656242</v>
+        <v>-36.32719069422208</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-38.02595912488166</v>
+        <v>-38.02149929730301</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-39.37848272101242</v>
+        <v>-39.37342652959136</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-39.20958345024356</v>
+        <v>-39.20504803395337</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-37.71899448599469</v>
+        <v>-37.71548395037156</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-36.09562838156601</v>
+        <v>-36.09271979660735</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-34.89572511209141</v>
+        <v>-34.89304450571242</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-34.23051331543939</v>
+        <v>-34.22785310168832</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-34.10227362288554</v>
+        <v>-34.09950438146044</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-34.50763709163023</v>
+        <v>-34.50463875478177</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-35.45325691111324</v>
+        <v>-35.44990467306982</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-36.91956317894051</v>
+        <v>-36.91572570117583</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-38.69094883660189</v>
+        <v>-38.68670847929125</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-39.92732084437417</v>
+        <v>-39.9235761387478</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-39.49504876370673</v>
+        <v>-39.49293337337001</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-37.89524730000223</v>
+        <v>-37.89423719333418</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-36.29743134881227</v>
+        <v>-36.2967513923718</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-35.1572318440241</v>
+        <v>-35.15656012962796</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-34.5516758830405</v>
+        <v>-34.55090275186164</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-34.4786715946051</v>
+        <v>-34.47776436548354</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-34.94269024549099</v>
+        <v>-34.94163606085595</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-35.97378936054871</v>
+        <v>-35.97258659210635</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-37.61669976774575</v>
+        <v>-37.61540385026666</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-39.82163477160817</v>
+        <v>-39.82050362478494</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-41.91674759857229</v>
+        <v>-41.91663842484043</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-42.0615079495642</v>
+        <v>-42.06287627020927</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-40.23778779227865</v>
+        <v>-40.23927939036074</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-38.29445504491905</v>
+        <v>-38.29550538525218</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-36.92193314863707</v>
+        <v>-36.92258727540553</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-36.17979584209865</v>
+        <v>-36.18014720999482</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-36.03285015205971</v>
+        <v>-36.0329644808257</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-36.46300000173128</v>
+        <v>-36.46289222543724</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-37.47585569110465</v>
+        <v>-37.47549796759244</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-39.04927360866304</v>
+        <v>-39.04855183986128</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-40.89356040374427</v>
+        <v>-40.89223854181126</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-41.8709568606969</v>
+        <v>-41.8690384986938</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-40.82860305650287</v>
+        <v>-40.82679730865318</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-38.81310559228884</v>
+        <v>-38.81170410084177</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-37.00789887557956</v>
+        <v>-37.00675202868314</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-35.72005081125228</v>
+        <v>-35.71902022584399</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-34.95716383093574</v>
+        <v>-34.95617190410422</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-34.68346659307107</v>
+        <v>-34.68245922850735</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-34.87277585708966</v>
+        <v>-34.87170448764249</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-35.50942575679201</v>
+        <v>-35.50822810750991</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-36.56256901297537</v>
+        <v>-36.56115314257922</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-37.90348024627271</v>
+        <v>-37.90169963002803</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-39.11211982499984</v>
+        <v>-39.1098682112893</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-39.42013430176549</v>
+        <v>-39.41761907826557</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-38.54425824486922</v>
+        <v>-38.5419340112807</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-37.14755983965208</v>
+        <v>-37.14555868776677</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-35.85854052847764</v>
+        <v>-35.8567714829715</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-34.91706781406263</v>
+        <v>-34.91543510008899</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-34.37548034664776</v>
+        <v>-34.37391909838032</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-34.23317606053584</v>
+        <v>-34.23165543495933</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-34.48060293725402</v>
+        <v>-34.47912029475953</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-35.1052010097583</v>
+        <v>-35.10379434162297</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-36.07330456788556</v>
+        <v>-36.07207695485261</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-37.27300915791689</v>
+        <v>-37.27218656138687</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-38.39894603034335</v>
+        <v>-38.39887621470683</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-38.91703000344821</v>
+        <v>-38.9178368988965</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-38.51123833670275</v>
+        <v>-38.51242051568394</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-37.52452102713854</v>
+        <v>-37.52545792040217</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-36.48590682865744</v>
+        <v>-36.48632766479763</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-35.69141080640787</v>
+        <v>-35.69121666787319</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-35.25942332702163</v>
+        <v>-35.25836502878273</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-35.31699730161444</v>
+        <v>-35.31280183081785</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-37.17754977490498</v>
+        <v>-37.16832437479804</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-37.52335323445151</v>
+        <v>-37.48151512342848</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-35.61057710412528</v>
+        <v>-35.60697876515346</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-38.52940883354724</v>
+        <v>-38.52354007695151</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-36.08647463288246</v>
+        <v>-36.07880821483678</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-35.68548423242478</v>
+        <v>-35.68623847017543</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-38.95411822379566</v>
+        <v>-38.95532444631426</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-39.02975260953573</v>
+        <v>-39.02638440262225</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-38.97746381090457</v>
+        <v>-38.98040929871866</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-39.25511893629132</v>
+        <v>-39.25767853559017</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-42.69065882385785</v>
+        <v>-42.69189406557135</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-43.26138642306089</v>
+        <v>-43.26283591426117</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-39.21897058629221</v>
+        <v>-39.22212368224778</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-38.47011404952578</v>
+        <v>-38.47152609511464</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-42.09307691799643</v>
+        <v>-42.08890902172642</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-43.09111277369428</v>
+        <v>-43.09254184047881</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-35.7290725141892</v>
+        <v>-35.72749321929102</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-37.82998488061085</v>
+        <v>-37.8281904017758</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-36.58605872968169</v>
+        <v>-36.59492543215824</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-36.42237027625493</v>
+        <v>-36.42354697917063</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-37.76857055755053</v>
+        <v>-37.76984941308599</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-37.34987380622921</v>
+        <v>-37.35079418727051</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-37.18149331948221</v>
+        <v>-37.18244875612796</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-38.62113628058945</v>
+        <v>-38.62170366185203</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-36.58774557701638</v>
+        <v>-36.58778053883988</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-39.43867379071408</v>
+        <v>-39.43735654682885</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-36.58894477309293</v>
+        <v>-36.58950323568783</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-40.57244266832414</v>
+        <v>-40.57447660913181</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-39.07635512529863</v>
+        <v>-39.07756211174263</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-44.0410859853233</v>
+        <v>-44.04492528309064</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-39.87678585648963</v>
+        <v>-39.87808152084411</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-42.42721422393706</v>
+        <v>-42.43037700214425</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-41.80306924921656</v>
+        <v>-41.80450323719872</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-42.53642643418029</v>
+        <v>-42.53862412776309</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-46.8768189188626</v>
+        <v>-46.8795700269031</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-47.46492323810946</v>
+        <v>-47.46627488729803</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-54.56254572143192</v>
+        <v>-54.57420376175428</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-50.69284961312031</v>
+        <v>-50.68758115986477</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-52.866673332913</v>
+        <v>-52.87663145122168</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-54.70554899548916</v>
+        <v>-54.70714599926895</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-60.74276118807388</v>
+        <v>-60.74432951442182</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-47.54269545787815</v>
+        <v>-47.52674434639196</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-48.88147469279638</v>
+        <v>-48.87353136779304</v>
       </c>
     </row>
     <row r="645">

--- a/RT_radpat_60deg.xlsx
+++ b/RT_radpat_60deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-43.81987977125393</v>
+        <v>-148.7869980254367</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-44.51662035367892</v>
+        <v>-149.1344450742737</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-44.6694789306036</v>
+        <v>-149.5273312967321</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-44.15791130710922</v>
+        <v>-149.9696758125344</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-43.12691017030099</v>
+        <v>-150.4654131517559</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-41.8395911640132</v>
+        <v>-151.0178761472888</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-40.49642607680175</v>
+        <v>-151.6287654716</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-39.2007319605807</v>
+        <v>-152.2961875521888</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-37.99324191059792</v>
+        <v>-153.0110646246802</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-36.88438889574193</v>
+        <v>-153.7509796230883</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-35.87199778449624</v>
+        <v>-154.4709807932896</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-34.94946156541612</v>
+        <v>-155.0938255783157</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-34.10921761199467</v>
+        <v>-155.5103155004406</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-33.34412903512337</v>
+        <v>-155.6081550390274</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-32.64796466190232</v>
+        <v>-155.3301372745236</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-32.01548945433634</v>
+        <v>-154.7135572222495</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-31.44242779360114</v>
+        <v>-153.8644913951117</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-30.92536451736035</v>
+        <v>-152.8981432683578</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-30.46165286273488</v>
+        <v>-151.9014203795394</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-30.04932241570865</v>
+        <v>-150.9275059448329</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-29.68701448657417</v>
+        <v>-150.0045783260343</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-29.37392641759776</v>
+        <v>-149.1455868745563</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-29.10977927186327</v>
+        <v>-148.3551578702437</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-28.89480191546992</v>
+        <v>-147.633707179266</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-28.72972782358444</v>
+        <v>-146.9797364080805</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-28.6158175963004</v>
+        <v>-146.3910503477836</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-28.55489371784064</v>
+        <v>-145.8653898971036</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-28.54939886532093</v>
+        <v>-145.4007509347963</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-28.60248308597177</v>
+        <v>-144.9955425529947</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-28.71811880897237</v>
+        <v>-144.6486579407525</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-28.9012618382325</v>
+        <v>-144.3595148462611</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-29.1580520246988</v>
+        <v>-144.1280764627793</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-29.49608092636831</v>
+        <v>-143.9548764668835</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-29.92470966677667</v>
+        <v>-143.8410523449865</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-30.45543569074635</v>
+        <v>-143.7883940106525</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-31.10218924900744</v>
+        <v>-143.799414739684</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-31.88127068172945</v>
+        <v>-143.8774453149375</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-32.80997946229347</v>
+        <v>-144.026766745779</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-33.90124922299753</v>
+        <v>-144.252776234695</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-35.14682436957487</v>
+        <v>-144.5621993444151</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-36.47072296992462</v>
+        <v>-144.9633369707096</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-37.6303108956813</v>
+        <v>-145.4663175061079</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-38.14913466407512</v>
+        <v>-146.0832370766096</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-37.63947986804774</v>
+        <v>-146.8278880905081</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-36.31140034425193</v>
+        <v>-147.7141903534718</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-34.6780847761145</v>
+        <v>-148.7510223031041</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-33.06845164741389</v>
+        <v>-149.9274579619762</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-31.60468895062423</v>
+        <v>-151.1751165609265</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.31295547202515</v>
+        <v>-152.2930394686627</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-29.18679108604729</v>
+        <v>-152.893155708826</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-28.21156055645388</v>
+        <v>-152.6138666755421</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-27.37260980084158</v>
+        <v>-151.5411115569815</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-26.65761548253633</v>
+        <v>-150.0954293797141</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-26.05699246427651</v>
+        <v>-148.6102486290057</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-25.56373088085729</v>
+        <v>-147.2355577953122</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-25.17310820162872</v>
+        <v>-146.016923321329</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-24.88244156381518</v>
+        <v>-144.9584530013206</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-24.69091413739991</v>
+        <v>-144.0510931434525</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-24.59948652636906</v>
+        <v>-143.2833113842356</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-24.61088308357765</v>
+        <v>-142.6447486086267</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-24.72964266219077</v>
+        <v>-142.1272937511984</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-24.96218854621639</v>
+        <v>-141.7252705604903</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-25.31683235651161</v>
+        <v>-141.4353722954116</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-25.80348568883525</v>
+        <v>-141.2565780724915</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-26.4325048832973</v>
+        <v>-141.1901513568539</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-27.21124159908109</v>
+        <v>-141.2397499737548</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-28.13479674563065</v>
+        <v>-141.4116907051052</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-29.16328663421944</v>
+        <v>-141.7153885857244</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-30.17434247620191</v>
+        <v>-142.1639922481371</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-30.90346154680058</v>
+        <v>-142.7751749212814</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-30.99585099128615</v>
+        <v>-143.571818748452</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-30.30652931924502</v>
+        <v>-144.5814508665565</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-29.07586467770664</v>
+        <v>-145.8303435361425</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-27.65568517546705</v>
+        <v>-147.3178694698829</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-26.26954788885224</v>
+        <v>-148.9268775299106</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-25.01257399780394</v>
+        <v>-150.2048574670362</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-23.9135106555325</v>
+        <v>-150.324393971979</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-22.97457202621479</v>
+        <v>-149.0712872089025</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-22.18940434621302</v>
+        <v>-147.2136027699538</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-21.55022922388905</v>
+        <v>-145.3749491694922</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-21.05048368061071</v>
+        <v>-143.7626071240526</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-20.68570160200483</v>
+        <v>-142.4052304721092</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-20.45373094574375</v>
+        <v>-141.2841355404071</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-20.35471196125404</v>
+        <v>-140.3742786461966</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-20.39092731825851</v>
+        <v>-139.6546773098289</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-20.56646685466647</v>
+        <v>-139.1102759532837</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-20.88642584428453</v>
+        <v>-138.731728568901</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-21.35497047706869</v>
+        <v>-138.5149170695649</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-21.97072678225541</v>
+        <v>-138.4607121925316</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-22.71623191098022</v>
+        <v>-138.5751311451541</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-23.53578988694006</v>
+        <v>-138.8699828231424</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-24.29835174570968</v>
+        <v>-139.3640786460747</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-24.77120437660124</v>
+        <v>-140.0850367068023</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-24.69780644271717</v>
+        <v>-141.0711658212575</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-24.00941612257495</v>
+        <v>-142.3703215003389</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-22.89952978545655</v>
+        <v>-144.0206641831042</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-21.63454007383857</v>
+        <v>-145.947100810943</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-20.39693638522085</v>
+        <v>-147.5830571666282</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-19.2756211099197</v>
+        <v>-147.5926061431095</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-18.30480468256618</v>
+        <v>-145.773933601723</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.49381096678975</v>
+        <v>-143.4686887804598</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-16.84248365880926</v>
+        <v>-141.3972909408969</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-16.34814184652221</v>
+        <v>-139.6863675174455</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-16.00851274865079</v>
+        <v>-138.3088967659671</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-15.82284730374365</v>
+        <v>-137.219797610752</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-15.7921212479526</v>
+        <v>-136.3829202994532</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-15.91853065366588</v>
+        <v>-135.7739398781647</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-16.20393730960295</v>
+        <v>-135.3790418528425</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-16.64616418205264</v>
+        <v>-135.1936403285141</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-17.23071431492659</v>
+        <v>-135.2219830233902</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-17.91357362465653</v>
+        <v>-135.4778697145033</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-18.59132744013021</v>
+        <v>-135.9867319204833</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-19.07210307702555</v>
+        <v>-136.7893898010026</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-19.11242159472656</v>
+        <v>-137.9471722490906</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-18.58150364669438</v>
+        <v>-139.5425999928573</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-17.59055300728084</v>
+        <v>-141.6340612436242</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-16.382270076529</v>
+        <v>-143.9257895502283</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-15.15825894098434</v>
+        <v>-144.7389056230614</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-14.03090902767739</v>
+        <v>-142.7280810538384</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-13.05001091766876</v>
+        <v>-139.874014254368</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-12.23374769400718</v>
+        <v>-137.3901835551693</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-11.58708508446474</v>
+        <v>-135.4040228602407</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-11.11076202546953</v>
+        <v>-133.8410035747476</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-10.8053641859706</v>
+        <v>-132.6268574759999</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-10.67303414992808</v>
+        <v>-131.7107230023813</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-10.71788437297688</v>
+        <v>-131.0622376648779</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-10.94518217441325</v>
+        <v>-130.6673978206329</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-11.35828321421788</v>
+        <v>-130.5265662736184</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-11.95030487324402</v>
+        <v>-130.6550226109092</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-12.68364645092006</v>
+        <v>-131.0866090480135</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-13.44649497273387</v>
+        <v>-131.8820376076649</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-13.99316718705265</v>
+        <v>-133.1448324487317</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-13.97248756976892</v>
+        <v>-135.0448678520642</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-13.19769494717909</v>
+        <v>-137.7788874950825</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-11.86377451248777</v>
+        <v>-140.6166370812361</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-10.31914039078157</v>
+        <v>-139.2931765770063</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-8.802293052134079</v>
+        <v>-135.1636745860207</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-7.41911593866881</v>
+        <v>-131.6222876515956</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-6.202746529395806</v>
+        <v>-128.8567594847146</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-5.156136795305477</v>
+        <v>-126.6514721025768</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-4.271910345037115</v>
+        <v>-124.8511173486977</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-3.540386700887875</v>
+        <v>-123.3585511150784</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-2.952564779619471</v>
+        <v>-122.1118188421458</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-2.501105338293237</v>
+        <v>-121.0699544267352</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-2.180557924620104</v>
+        <v>-120.2050294032886</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.987330501274611</v>
+        <v>-119.4976276346068</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.919598228381309</v>
+        <v>-118.9341806517486</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.977227421309403</v>
+        <v>-118.5053524346943</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.161741043871627</v>
+        <v>-118.2050457768022</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-2.476330270837202</v>
+        <v>-118.0298004831643</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-2.925900345652317</v>
+        <v>-117.978458630365</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-3.517116685762137</v>
+        <v>-118.0520328937961</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-4.258365255231182</v>
+        <v>-118.2537536490663</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.159422876927489</v>
+        <v>-118.5893031654074</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-6.230350234431293</v>
+        <v>-119.0672798426473</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-7.478458856822439</v>
+        <v>-119.6999848573225</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-8.900728704850902</v>
+        <v>-120.5047051509572</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-10.4663012326469</v>
+        <v>-121.505817102911</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-12.08169142756001</v>
+        <v>-122.7383350269985</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-13.54613038379748</v>
+        <v>-124.2541485490958</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-14.57252057150031</v>
+        <v>-126.1335241122968</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-14.98678188183302</v>
+        <v>-128.507040036086</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-14.92269815184135</v>
+        <v>-131.5937602878562</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-14.68785271391848</v>
+        <v>-135.6865319747827</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-14.53488028919925</v>
+        <v>-139.8461074917702</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-14.60960691198101</v>
+        <v>-138.6253815699618</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-14.99571633613928</v>
+        <v>-135.1712966276359</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-15.76180818821198</v>
+        <v>-132.7156397900533</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-16.99856011894289</v>
+        <v>-131.1470392027844</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-18.86600317445342</v>
+        <v>-130.2115245783115</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-21.70503436200272</v>
+        <v>-129.7626717132666</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-26.46573528879792</v>
+        <v>-129.7249773710687</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-38.70241039779798</v>
+        <v>-130.0673936677663</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-32.47018403767964</v>
+        <v>-130.792342005189</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-24.8840565849965</v>
+        <v>-131.9350817581166</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-21.26590684503038</v>
+        <v>-133.5719919328024</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-19.10992366393988</v>
+        <v>-135.8357345575091</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-17.78994195617884</v>
+        <v>-138.8936176220897</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-17.06258356426038</v>
+        <v>-142.4153150197067</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-16.82063027888429</v>
+        <v>-143.2125441088442</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-17.0244696493879</v>
+        <v>-140.4037649337524</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-17.68144433978156</v>
+        <v>-137.6912187381697</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-18.84651040451273</v>
+        <v>-135.8002955918198</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-20.64158308514395</v>
+        <v>-134.5889278336371</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-23.29804186572346</v>
+        <v>-133.9165063732138</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-27.12601180508448</v>
+        <v>-133.7023972413711</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-30.64979677856168</v>
+        <v>-133.9120458644994</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-28.11801793667522</v>
+        <v>-134.5477846342764</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-24.31018835523409</v>
+        <v>-135.6488651111904</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-21.68823336140347</v>
+        <v>-137.3000208069391</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-19.99190958131359</v>
+        <v>-139.6394691421759</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-18.96849254235893</v>
+        <v>-142.7584893500776</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-18.48350913499107</v>
+        <v>-145.6546975406921</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-18.47543674232683</v>
+        <v>-144.8501823912607</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-18.93148640602557</v>
+        <v>-141.8984200576933</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-19.88007489702426</v>
+        <v>-139.4788615889234</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-21.39169791623081</v>
+        <v>-137.8369370424826</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-23.56541409450999</v>
+        <v>-136.8300934044938</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-26.34316411257797</v>
+        <v>-136.3489016187429</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-28.42128993808678</v>
+        <v>-136.3376931823454</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-27.25569617678646</v>
+        <v>-136.7844973569759</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-24.59809702981057</v>
+        <v>-137.7179829878544</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-22.39462685791917</v>
+        <v>-139.2137498526055</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-20.87813693877215</v>
+        <v>-141.402509260583</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-19.95884893584102</v>
+        <v>-144.3908214162439</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-19.55615394953466</v>
+        <v>-147.3632930926476</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-19.6299205066454</v>
+        <v>-146.8819282866829</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-20.17674164610053</v>
+        <v>-143.936764425764</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-21.22522012736113</v>
+        <v>-141.4441308135511</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-22.82286251783721</v>
+        <v>-139.7519061753111</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-24.95374874130148</v>
+        <v>-138.7245794740901</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-27.12436449760459</v>
+        <v>-138.2519224860359</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-27.65429982603845</v>
+        <v>-138.2800708530997</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-25.96823895230189</v>
+        <v>-138.8030255945076</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-23.84685466188579</v>
+        <v>-139.8612874968835</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-22.18208584340043</v>
+        <v>-141.5501656301619</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-21.08397681351662</v>
+        <v>-144.0174564093837</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-20.51163272474121</v>
+        <v>-147.2280499979448</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-20.42721152651634</v>
+        <v>-149.2450425912446</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-20.81936034690547</v>
+        <v>-147.1823640886221</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-21.70243976919156</v>
+        <v>-144.235378228473</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-23.10086135496294</v>
+        <v>-142.0721266273862</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-24.97103374190621</v>
+        <v>-140.6847566179117</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-26.88169542253997</v>
+        <v>-139.9325929411322</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-27.52735511531533</v>
+        <v>-139.731871420287</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-26.25159083773385</v>
+        <v>-140.0556936357835</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-24.3663768872012</v>
+        <v>-140.928607484826</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-22.79736913245662</v>
+        <v>-142.4322768036967</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-21.74409484446836</v>
+        <v>-144.7117221219477</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-21.20348592891659</v>
+        <v>-147.8396562697334</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-21.15176412887611</v>
+        <v>-150.4590416228348</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-21.58175972374308</v>
+        <v>-148.974739897647</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-22.50371866689239</v>
+        <v>-145.8980205098775</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-23.91887955315664</v>
+        <v>-143.5621270784681</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-25.70331904201442</v>
+        <v>-142.0578713137871</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-27.24923475568061</v>
+        <v>-141.2343223039323</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-27.35442377345341</v>
+        <v>-140.9973451458979</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-25.96253306902442</v>
+        <v>-141.3161715603792</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-24.2744903151667</v>
+        <v>-142.2174583243752</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-22.94330205485382</v>
+        <v>-143.791585327267</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-22.11019942490181</v>
+        <v>-146.1964839418209</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-21.77808803333301</v>
+        <v>-149.4533275107086</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-21.93627387208052</v>
+        <v>-151.6515481622092</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-22.58625979671652</v>
+        <v>-149.5001709622545</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-23.73164950954659</v>
+        <v>-146.4324340749447</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-25.3114722917608</v>
+        <v>-144.2348391412403</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-26.96589997255115</v>
+        <v>-142.8712513510797</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-27.7029478459035</v>
+        <v>-142.1901487917581</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-26.83486963971204</v>
+        <v>-142.110297612455</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-25.22749953147856</v>
+        <v>-142.6173812999146</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-23.78646888400725</v>
+        <v>-143.7612036535541</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-22.80357613365558</v>
+        <v>-145.6661250990678</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-22.32238159467358</v>
+        <v>-148.5050396211868</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-22.3374409681723</v>
+        <v>-151.8588564087938</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-22.8458944426492</v>
+        <v>-152.0804089248792</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-23.84621882847769</v>
+        <v>-148.92209475763</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-25.28556474712722</v>
+        <v>-146.187920162996</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-26.87352443025</v>
+        <v>-144.401661118625</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-27.7721321066694</v>
+        <v>-143.397856838284</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-27.19464253500652</v>
+        <v>-143.0536354114744</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-25.73589635166825</v>
+        <v>-143.3244916090524</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-24.3242913222536</v>
+        <v>-144.2364359692942</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-23.3305282958874</v>
+        <v>-145.8934590819912</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-22.83165205406723</v>
+        <v>-148.4834181536472</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-22.83244889843075</v>
+        <v>-151.9740374664672</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-23.33128842679669</v>
+        <v>-153.5941133585831</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-24.32146017060332</v>
+        <v>-150.6819842778711</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-25.7329376522128</v>
+        <v>-147.6211298907213</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-27.23722592068357</v>
+        <v>-145.5785811114474</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-27.98677064047504</v>
+        <v>-144.395682404206</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-27.32640497921031</v>
+        <v>-143.9200532486974</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-25.90677794770539</v>
+        <v>-144.0885908495686</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-24.57985482798722</v>
+        <v>-144.9162337089458</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-23.67838597721538</v>
+        <v>-146.5007076993232</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-23.27470840451895</v>
+        <v>-149.0344130692401</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-23.37632259543488</v>
+        <v>-152.5629450674242</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-23.98235678827195</v>
+        <v>-154.5256433020433</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-25.07504741920549</v>
+        <v>-151.6574689629662</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-26.53325327115888</v>
+        <v>-148.4962865311797</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-27.88899492338129</v>
+        <v>-146.3988974340494</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-28.21886959623658</v>
+        <v>-145.1978999762934</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-27.24107210291344</v>
+        <v>-144.7314928563632</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-25.81515696935644</v>
+        <v>-144.9352687261312</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-24.6294601246216</v>
+        <v>-145.8299931135011</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-23.90852406197352</v>
+        <v>-147.5290410056538</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-23.69641766349599</v>
+        <v>-150.252660255052</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-23.99794190974246</v>
+        <v>-153.9758846354661</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-24.80996336240048</v>
+        <v>-155.2785273556482</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-26.08818061250273</v>
+        <v>-151.9081731836866</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-27.60051906995293</v>
+        <v>-148.8347175056751</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-28.63986825155406</v>
+        <v>-146.8823902248191</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-28.35516725543377</v>
+        <v>-145.8260127375115</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-27.07418944889917</v>
+        <v>-145.5130877792982</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-25.72585028910801</v>
+        <v>-145.8970082418485</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-24.76662493777344</v>
+        <v>-147.0251484916942</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-24.3140320364917</v>
+        <v>-149.0558067157393</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-24.38682843833421</v>
+        <v>-152.2560724429222</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-24.98542603079596</v>
+        <v>-156.0428781056819</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-26.08795617497398</v>
+        <v>-155.1216623660647</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-27.55552276907855</v>
+        <v>-151.3358738426205</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-28.87143851577548</v>
+        <v>-148.6270999247263</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-29.08997763188902</v>
+        <v>-147.0122141733424</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-28.04531140615388</v>
+        <v>-146.2481313644297</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-26.65012640575963</v>
+        <v>-146.2189306073877</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-25.5521207411373</v>
+        <v>-146.9158971857485</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-24.95122994593372</v>
+        <v>-148.435689435063</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-24.88659730594774</v>
+        <v>-151.012197108164</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-25.36342127556302</v>
+        <v>-154.8787866639075</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-26.36964625638689</v>
+        <v>-157.3655696533062</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-27.80372411100289</v>
+        <v>-153.9615734250206</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-29.23298569316645</v>
+        <v>-150.5107665898626</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-29.69748021513697</v>
+        <v>-148.3470968207026</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-28.7736831190854</v>
+        <v>-147.1776762710888</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-27.33335451386777</v>
+        <v>-146.8110131915048</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-26.14061316987403</v>
+        <v>-147.1875074876467</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-25.44659843847831</v>
+        <v>-148.3581818344387</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-25.30081693639963</v>
+        <v>-150.5064957153167</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-25.70963114599059</v>
+        <v>-153.9613418242489</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-26.66538518114295</v>
+        <v>-157.9201030005989</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-28.08633248364082</v>
+        <v>-156.1099760986142</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-29.58831959549502</v>
+        <v>-152.1368840224333</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-30.21486303709229</v>
+        <v>-149.5069490180891</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-29.38319946221182</v>
+        <v>-148.0058154341142</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-27.92468221236653</v>
+        <v>-147.3741897576969</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-26.68239274899955</v>
+        <v>-147.5074977392068</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-25.94259078786262</v>
+        <v>-148.4199019746509</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-25.75989719397404</v>
+        <v>-150.2502956792554</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-26.13714760913732</v>
+        <v>-153.2983599094925</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-27.05827888149465</v>
+        <v>-157.5078241937237</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-28.42424075645126</v>
+        <v>-157.7132450936023</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-29.82612913964957</v>
+        <v>-153.6077057600948</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-30.3369352624033</v>
+        <v>-150.6059365911929</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-29.47964081781005</v>
+        <v>-148.8419285131364</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-28.06716218486235</v>
+        <v>-148.0132991427421</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-26.8797878113467</v>
+        <v>-147.9802108294444</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-26.18785517611274</v>
+        <v>-148.7329838173607</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-26.04768471401716</v>
+        <v>-150.3900021641873</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-26.46583023831691</v>
+        <v>-153.2481507777023</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-27.42888928452924</v>
+        <v>-157.5829443173456</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-28.83719981031107</v>
+        <v>-159.2057800576915</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-30.27138312992404</v>
+        <v>-154.9405570306672</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-30.78798110536671</v>
+        <v>-151.5983084559325</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-29.9330972361089</v>
+        <v>-149.629129579708</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-28.55024847753218</v>
+        <v>-148.66521716792</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-27.41584714680479</v>
+        <v>-148.5316193087032</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-26.79439665581129</v>
+        <v>-149.2012932491769</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-26.74333881395704</v>
+        <v>-150.7831215262336</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-27.27479379711492</v>
+        <v>-153.5773418217219</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-28.38105851983306</v>
+        <v>-157.9873616408355</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-29.94805543656062</v>
+        <v>-160.2330068099241</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-31.4488337302772</v>
+        <v>-155.8046783097904</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-31.75942254111828</v>
+        <v>-152.2791229814496</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-30.62241178262409</v>
+        <v>-150.2178986145468</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-29.13862752826082</v>
+        <v>-149.2035814563222</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-28.03723154322932</v>
+        <v>-149.042956195984</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-27.51483961716515</v>
+        <v>-149.7040444741094</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-27.60595104375215</v>
+        <v>-151.2997785717384</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-28.32231519749998</v>
+        <v>-154.1514002997206</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-29.65712019709255</v>
+        <v>-158.7232046999965</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-31.44002754704125</v>
+        <v>-160.8408772239067</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-32.86634522178319</v>
+        <v>-156.1216327210046</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-32.59180145766428</v>
+        <v>-152.5701339722127</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-30.99191690193923</v>
+        <v>-150.5153915351411</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-29.40832795909713</v>
+        <v>-149.5118689881886</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-28.3708650723845</v>
+        <v>-149.3634969897527</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-27.96595538805916</v>
+        <v>-150.0378089445866</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-28.19256261676448</v>
+        <v>-151.6443775275342</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-29.04541492955869</v>
+        <v>-154.4802768471934</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-30.47934494443558</v>
+        <v>-158.8163315430551</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-32.19312329623568</v>
+        <v>-160.2895456248097</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-33.17777599913578</v>
+        <v>-155.9450354626351</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-32.4557459627455</v>
+        <v>-152.6046466989475</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-30.86869589171121</v>
+        <v>-150.6452637010297</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-29.5003702676502</v>
+        <v>-149.6966765807247</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-28.70263217238907</v>
+        <v>-149.5866598351386</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-28.5315953099734</v>
+        <v>-150.2921000405493</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-28.99014515754519</v>
+        <v>-151.9278463673284</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-30.06912188318502</v>
+        <v>-154.7980737149712</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-31.66037655739164</v>
+        <v>-159.201114226258</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-33.21719293655753</v>
+        <v>-160.754616330545</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-33.49782402739256</v>
+        <v>-156.3820145520336</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-32.22580335437742</v>
+        <v>-153.0517252442064</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-30.63126586697538</v>
+        <v>-151.1228317059772</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-29.46818822878406</v>
+        <v>-150.218506921574</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-28.91724883666426</v>
+        <v>-150.1693243019652</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-29.00476610901985</v>
+        <v>-150.9620123549107</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-29.7473628852766</v>
+        <v>-152.73460160223</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-31.16574206002456</v>
+        <v>-155.8450842313197</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-33.16653509088061</v>
+        <v>-160.5571575461692</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-35.02058518237978</v>
+        <v>-161.0111575353296</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-35.03421840395015</v>
+        <v>-156.3253877720715</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-33.34891668225504</v>
+        <v>-153.140745356385</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-31.64570163920979</v>
+        <v>-151.3418316978023</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-30.56828056824293</v>
+        <v>-150.5482143913765</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-30.2012442653548</v>
+        <v>-150.6076648089643</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-30.54527215072494</v>
+        <v>-151.5245733348891</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-31.62114849502472</v>
+        <v>-153.460442869879</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-33.437012711144</v>
+        <v>-156.7903879756203</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-35.67086050533268</v>
+        <v>-161.3166396588008</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-36.72794483380451</v>
+        <v>-160.1738117147902</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-35.29354565645971</v>
+        <v>-155.7495284179147</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-33.19203081666524</v>
+        <v>-152.8694269349275</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-31.65638196581521</v>
+        <v>-151.2547900859698</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-30.87016191943077</v>
+        <v>-150.5882153205552</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-30.81501530676967</v>
+        <v>-150.7501836039957</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-31.48810940551906</v>
+        <v>-151.7658697987283</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-32.92337249630775</v>
+        <v>-153.8221515137604</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-35.08995820562613</v>
+        <v>-157.355506915157</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-37.29266956726496</v>
+        <v>-162.2223568547551</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-37.35694323541828</v>
+        <v>-160.5905856857615</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-35.32094071803547</v>
+        <v>-156.0007764422741</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-33.35191936810097</v>
+        <v>-153.1475498469231</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-32.12734160650341</v>
+        <v>-151.5834194893964</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-31.68167834767141</v>
+        <v>-150.9738751169664</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-31.99409373488147</v>
+        <v>-151.2006557266885</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-33.09156570312934</v>
+        <v>-152.2942494274598</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-35.03052531157031</v>
+        <v>-154.4450720205782</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-37.6059868027935</v>
+        <v>-158.0294652800026</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-39.05193662391752</v>
+        <v>-162.0912368939866</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-37.39217116141501</v>
+        <v>-159.6490784423392</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-34.97565337516585</v>
+        <v>-155.5596151269477</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-33.27390240436662</v>
+        <v>-152.9757411899338</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-32.41572564683592</v>
+        <v>-151.5563714866942</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-32.35077525495277</v>
+        <v>-151.0365076428996</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-33.07941423400064</v>
+        <v>-151.324752226369</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-34.68250467865502</v>
+        <v>-152.4632934234597</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-37.2670260509522</v>
+        <v>-154.6487944633039</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-40.24650436530304</v>
+        <v>-158.2677495611442</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-40.22597594967184</v>
+        <v>-162.4273974895978</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-37.35755480186906</v>
+        <v>-160.0493171352909</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-34.95370987536673</v>
+        <v>-155.9486142736031</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-33.5350092677693</v>
+        <v>-153.3695610093864</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-32.99506793130273</v>
+        <v>-151.9638893889428</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-33.26465031036523</v>
+        <v>-151.4639199694502</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-34.3656345495867</v>
+        <v>-151.7807433000026</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-36.39686331557702</v>
+        <v>-152.9670942478096</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-39.30709720233318</v>
+        <v>-155.2576799250207</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-41.30341971942375</v>
+        <v>-159.2193290912738</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-39.4403208717487</v>
+        <v>-164.6250066425636</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-36.66223999931491</v>
+        <v>-161.5460670053172</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-34.76543646492476</v>
+        <v>-156.8254261410299</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-33.80399130529538</v>
+        <v>-154.0831173514182</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-33.68415183495006</v>
+        <v>-152.6278051243738</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-34.39600961882513</v>
+        <v>-152.1189908068437</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-36.04226983879265</v>
+        <v>-152.4488895468434</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-38.8385299850698</v>
+        <v>-153.6643947743962</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-42.52268123741474</v>
+        <v>-155.9877113362224</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-42.80768930075606</v>
+        <v>-159.8484063650634</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-39.28872703280342</v>
+        <v>-163.7719274435061</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-36.54300619946461</v>
+        <v>-160.4437027818853</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-34.96772923255739</v>
+        <v>-156.3901030136869</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-34.34807240316434</v>
+        <v>-153.9085238019697</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-34.57891084666747</v>
+        <v>-152.5645922622223</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-35.67396971353008</v>
+        <v>-152.1009765670435</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-37.7376535201169</v>
+        <v>-152.4364364928175</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-40.70010449937628</v>
+        <v>-153.6257883918017</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-42.47683487717072</v>
+        <v>-155.8971066186024</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-40.22179073111487</v>
+        <v>-159.7727313612784</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-37.32962297887125</v>
+        <v>-164.810986029293</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-35.38548189774087</v>
+        <v>-161.9081902531605</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-34.37152573631153</v>
+        <v>-157.3258493510277</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-34.17773507805432</v>
+        <v>-154.5863480428897</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-34.77966007541009</v>
+        <v>-153.090649645245</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-36.24675483760826</v>
+        <v>-152.5117670279547</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-38.70390511548423</v>
+        <v>-152.737300095961</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-41.77015388252612</v>
+        <v>-153.7980559170828</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-42.21650204292944</v>
+        <v>-155.8872602322431</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-39.28521564151509</v>
+        <v>-159.4682397127889</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-36.6330369240847</v>
+        <v>-164.6076496833668</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-34.96754092939404</v>
+        <v>-163.0949495202544</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-34.16968672605052</v>
+        <v>-158.2907199381734</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-34.13847199035813</v>
+        <v>-155.32730104839</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-34.85340925580977</v>
+        <v>-153.6725588135328</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-36.35900356392946</v>
+        <v>-152.9602411291318</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-38.66908221719544</v>
+        <v>-153.0531973434362</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-41.13262384313804</v>
+        <v>-153.9598864903571</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-41.24256168866783</v>
+        <v>-155.8397767612285</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-38.96555444893357</v>
+        <v>-159.0979232208493</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-36.82794389280733</v>
+        <v>-164.1435901692158</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-35.50839361758145</v>
+        <v>-164.4046974963193</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-35.00736867164436</v>
+        <v>-159.3749513768161</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-35.30074685775854</v>
+        <v>-156.0915032097789</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-36.44935557179141</v>
+        <v>-154.2072166121889</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-38.63851348583023</v>
+        <v>-153.2991339036915</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-42.0895203659036</v>
+        <v>-153.1941120514638</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-44.96581113198389</v>
+        <v>-153.8689634100541</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-42.21804432397581</v>
+        <v>-155.4380587140438</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-38.64255650592239</v>
+        <v>-158.234175168596</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-36.31376313772643</v>
+        <v>-162.9749162186744</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-35.01608270373426</v>
+        <v>-166.9410486994927</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-34.54426493494631</v>
+        <v>-161.6720775580962</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-34.81153689378229</v>
+        <v>-157.5773359869379</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-35.80967176992093</v>
+        <v>-155.2181976375481</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-37.54269846464845</v>
+        <v>-153.9709339305825</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-39.72690816069326</v>
+        <v>-153.5703123144799</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-40.84588537152244</v>
+        <v>-153.9383638319614</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-39.40996617419258</v>
+        <v>-155.1310999008018</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-37.15649531385431</v>
+        <v>-157.3772921435898</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-35.41202911834352</v>
+        <v>-161.2371245380547</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-34.38080273763654</v>
+        <v>-166.8897694813924</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-34.03541858819401</v>
+        <v>-164.371232036984</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-34.35840402741946</v>
+        <v>-159.3310074511601</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-35.38083775054157</v>
+        <v>-156.3424044933115</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-37.1714918282534</v>
+        <v>-154.6494008786396</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-39.66726734489209</v>
+        <v>-153.8633340781012</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-41.69443410552282</v>
+        <v>-153.8347771780074</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-40.74024014438923</v>
+        <v>-154.5496213584314</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-38.22793200815596</v>
+        <v>-156.1190060105943</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-36.18599616212552</v>
+        <v>-158.8484808231214</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-34.9253419596777</v>
+        <v>-163.3418627580174</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-34.38640490547711</v>
+        <v>-167.221664641761</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-34.51524360734804</v>
+        <v>-162.5704915925663</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-35.302372653212</v>
+        <v>-158.5064656940264</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-36.75406649642729</v>
+        <v>-156.0971171334552</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-38.73106051296438</v>
+        <v>-154.774129780676</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-40.3410877147048</v>
+        <v>-154.2706401477981</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-39.8872784987303</v>
+        <v>-154.4952762634427</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-37.91529508380037</v>
+        <v>-155.4764196708881</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-36.03942550371525</v>
+        <v>-157.3818775579295</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-34.76283070440331</v>
+        <v>-160.6369002897834</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-34.12177241666009</v>
+        <v>-165.9872009950945</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-34.08924515441043</v>
+        <v>-167.45749660151</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-34.65744602226394</v>
+        <v>-161.8454089112414</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-35.83638496973432</v>
+        <v>-158.2267158647796</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-37.57685755155845</v>
+        <v>-156.1212672597514</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-39.43373083152083</v>
+        <v>-155.0041588420381</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-40.02110055044862</v>
+        <v>-154.6562955596663</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-38.65592918295781</v>
+        <v>-155.012952914682</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-36.74988141774857</v>
+        <v>-156.1223359977011</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-35.24393131591345</v>
+        <v>-158.1769853702608</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-34.32576025422755</v>
+        <v>-161.6494054888077</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-33.9899016166515</v>
+        <v>-167.2307906236113</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-34.21693206463542</v>
+        <v>-167.3753879713755</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-35.00210992282818</v>
+        <v>-161.8424357061052</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-36.32719069422208</v>
+        <v>-158.4088650405526</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-38.02149929730301</v>
+        <v>-156.3980190901628</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-39.37342652959136</v>
+        <v>-155.3259084470899</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-39.20504803395337</v>
+        <v>-154.9901689866807</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-37.71548395037156</v>
+        <v>-155.3300178069466</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-36.09271979660735</v>
+        <v>-156.3886523325411</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-34.89304450571242</v>
+        <v>-158.3410631631841</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-34.22785310168832</v>
+        <v>-161.6198576635139</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-34.09950438146044</v>
+        <v>-167.0655976760548</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-34.50463875478177</v>
+        <v>-169.013710992039</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-35.44990467306982</v>
+        <v>-163.1768272688434</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-36.91572570117583</v>
+        <v>-159.429302566222</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-38.68670847929125</v>
+        <v>-157.2303243760769</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-39.9235761387478</v>
+        <v>-156.014273695608</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-39.49293337337001</v>
+        <v>-155.5433467239675</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-37.89423719333418</v>
+        <v>-155.7346810240321</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-36.2967513923718</v>
+        <v>-156.6074507799263</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-35.15656012962796</v>
+        <v>-158.2947477664018</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-34.55090275186164</v>
+        <v>-161.1336028906235</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-34.47776436548354</v>
+        <v>-165.8683631305593</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-34.94163606085595</v>
+        <v>-170.4302302258219</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-35.97258659210635</v>
+        <v>-165.146359867061</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-37.61540385026666</v>
+        <v>-160.7935327769445</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-39.82050362478494</v>
+        <v>-158.202527956708</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-41.91663842484043</v>
+        <v>-156.6852032541069</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-42.06287627020927</v>
+        <v>-155.9355572314404</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-40.23927939036074</v>
+        <v>-155.8285359215077</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-38.29550538525218</v>
+        <v>-156.3403004368822</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-36.92258727540553</v>
+        <v>-157.5352341178763</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-36.18014720999482</v>
+        <v>-159.6056227752171</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-36.0329644808257</v>
+        <v>-163.0118147985322</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-36.46289222543724</v>
+        <v>-168.6652284131209</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-37.47549796759244</v>
+        <v>-170.3318981996244</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-39.04855183986128</v>
+        <v>-164.3389884998444</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-40.89223854181126</v>
+        <v>-160.5844216506177</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-41.8690384986938</v>
+        <v>-158.3505345062882</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-40.82679730865318</v>
+        <v>-157.0631989178214</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-38.81170410084177</v>
+        <v>-156.4780270929816</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-37.00675202868314</v>
+        <v>-156.4982811499747</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-35.71902022584399</v>
+        <v>-157.1155795134493</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-34.95617190410422</v>
+        <v>-158.4058893921878</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-34.68245922850735</v>
+        <v>-160.5771027511818</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-34.87170448764249</v>
+        <v>-164.1331945955665</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-35.50822810750991</v>
+        <v>-170.1985882582076</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-36.56115314257922</v>
+        <v>-171.7128496246548</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-37.90169963002803</v>
+        <v>-165.3155664149446</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-39.1098682112893</v>
+        <v>-161.5376195953703</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-39.41761907826557</v>
+        <v>-159.306334943533</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-38.5419340112807</v>
+        <v>-158.0157807157304</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-37.14555868776677</v>
+        <v>-157.4155042294267</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-35.8567714829715</v>
+        <v>-157.4046504844287</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-34.91543510008899</v>
+        <v>-157.9683138843039</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-34.37391909838032</v>
+        <v>-159.1695683090774</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-34.23165543495933</v>
+        <v>-161.1872584309841</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-34.47912029475953</v>
+        <v>-164.4512594133467</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-35.10379434162297</v>
+        <v>-170.0256796470484</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-36.07207695485261</v>
+        <v>-174.3563258208536</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-37.27218656138687</v>
+        <v>-167.6344612605717</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-38.39887621470683</v>
+        <v>-163.3894584243676</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-38.9178368988965</v>
+        <v>-160.9146541246404</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-38.51242051568394</v>
+        <v>-159.4636384994043</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-37.52545792040217</v>
+        <v>-158.7358235972956</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-36.48632766479763</v>
+        <v>-158.6080441949968</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-35.69121666787319</v>
+        <v>-159.0520028944602</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-35.25836502878273</v>
+        <v>-160.1204578877301</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-35.31280183081785</v>
+        <v>-169.8327793473423</v>
       </c>
     </row>
     <row r="602">
@@ -5243,343 +5243,427 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-37.16832437479804</v>
+        <v>-162.5143038331333</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
         <v>2.100219337939339</v>
       </c>
-      <c r="B603" t="n">
-        <v>-37.48151512342848</v>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
         <v>2.103713879267025</v>
       </c>
-      <c r="B604" t="n">
-        <v>-35.60697876515346</v>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
         <v>2.107208420594711</v>
       </c>
-      <c r="B605" t="n">
-        <v>-38.52354007695151</v>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
         <v>2.110702961922397</v>
       </c>
-      <c r="B606" t="n">
-        <v>-36.07880821483678</v>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
         <v>2.114197503250083</v>
       </c>
-      <c r="B607" t="n">
-        <v>-35.68623847017543</v>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
         <v>2.117692044577769</v>
       </c>
-      <c r="B608" t="n">
-        <v>-38.95532444631426</v>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
         <v>2.121186585905456</v>
       </c>
-      <c r="B609" t="n">
-        <v>-39.02638440262225</v>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
         <v>2.124681127233142</v>
       </c>
-      <c r="B610" t="n">
-        <v>-38.98040929871866</v>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
         <v>2.128175668560828</v>
       </c>
-      <c r="B611" t="n">
-        <v>-39.25767853559017</v>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
         <v>2.131670209888514</v>
       </c>
-      <c r="B612" t="n">
-        <v>-42.69189406557135</v>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
         <v>2.1351647512162</v>
       </c>
-      <c r="B613" t="n">
-        <v>-43.26283591426117</v>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
         <v>2.138659292543886</v>
       </c>
-      <c r="B614" t="n">
-        <v>-39.22212368224778</v>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
         <v>2.142153833871572</v>
       </c>
-      <c r="B615" t="n">
-        <v>-38.47152609511464</v>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
         <v>2.145648375199258</v>
       </c>
-      <c r="B616" t="n">
-        <v>-42.08890902172642</v>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
         <v>2.149142916526944</v>
       </c>
-      <c r="B617" t="n">
-        <v>-43.09254184047881</v>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
         <v>2.15263745785463</v>
       </c>
-      <c r="B618" t="n">
-        <v>-35.72749321929102</v>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
         <v>2.156131999182316</v>
       </c>
-      <c r="B619" t="n">
-        <v>-37.8281904017758</v>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
         <v>2.159626540510002</v>
       </c>
-      <c r="B620" t="n">
-        <v>-36.59492543215824</v>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
         <v>2.163121081837688</v>
       </c>
-      <c r="B621" t="n">
-        <v>-36.42354697917063</v>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
         <v>2.166615623165375</v>
       </c>
-      <c r="B622" t="n">
-        <v>-37.76984941308599</v>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
         <v>2.170110164493061</v>
       </c>
-      <c r="B623" t="n">
-        <v>-37.35079418727051</v>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
         <v>2.173604705820747</v>
       </c>
-      <c r="B624" t="n">
-        <v>-37.18244875612796</v>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
         <v>2.177099247148433</v>
       </c>
-      <c r="B625" t="n">
-        <v>-38.62170366185203</v>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
         <v>2.180593788476119</v>
       </c>
-      <c r="B626" t="n">
-        <v>-36.58778053883988</v>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
         <v>2.184088329803805</v>
       </c>
-      <c r="B627" t="n">
-        <v>-39.43735654682885</v>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
         <v>2.187582871131491</v>
       </c>
-      <c r="B628" t="n">
-        <v>-36.58950323568783</v>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
         <v>2.191077412459177</v>
       </c>
-      <c r="B629" t="n">
-        <v>-40.57447660913181</v>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
         <v>2.194571953786864</v>
       </c>
-      <c r="B630" t="n">
-        <v>-39.07756211174263</v>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
         <v>2.19806649511455</v>
       </c>
-      <c r="B631" t="n">
-        <v>-44.04492528309064</v>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
         <v>2.201561036442236</v>
       </c>
-      <c r="B632" t="n">
-        <v>-39.87808152084411</v>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
         <v>2.205055577769921</v>
       </c>
-      <c r="B633" t="n">
-        <v>-42.43037700214425</v>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
         <v>2.208550119097608</v>
       </c>
-      <c r="B634" t="n">
-        <v>-41.80450323719872</v>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
         <v>2.212044660425294</v>
       </c>
-      <c r="B635" t="n">
-        <v>-42.53862412776309</v>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
         <v>2.21553920175298</v>
       </c>
-      <c r="B636" t="n">
-        <v>-46.8795700269031</v>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
         <v>2.219033743080666</v>
       </c>
-      <c r="B637" t="n">
-        <v>-47.46627488729803</v>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
         <v>2.222528284408352</v>
       </c>
-      <c r="B638" t="n">
-        <v>-54.57420376175428</v>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
         <v>2.226022825736038</v>
       </c>
-      <c r="B639" t="n">
-        <v>-50.68758115986477</v>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
         <v>2.229517367063724</v>
       </c>
-      <c r="B640" t="n">
-        <v>-52.87663145122168</v>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
         <v>2.23301190839141</v>
       </c>
-      <c r="B641" t="n">
-        <v>-54.70714599926895</v>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
         <v>2.236506449719097</v>
       </c>
-      <c r="B642" t="n">
-        <v>-60.74432951442182</v>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
         <v>2.240000991046783</v>
       </c>
-      <c r="B643" t="n">
-        <v>-47.52674434639196</v>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
         <v>2.243495532374469</v>
       </c>
-      <c r="B644" t="n">
-        <v>-48.87353136779304</v>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="645">

--- a/RT_radpat_60deg.xlsx
+++ b/RT_radpat_60deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-148.7869980254367</v>
+        <v>-148.5574734779886</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-149.1344450742737</v>
+        <v>-148.8830697177168</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-149.5273312967321</v>
+        <v>-149.2525117933157</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-149.9696758125344</v>
+        <v>-149.6698002515985</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-150.4654131517559</v>
+        <v>-150.1390112315928</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-151.0178761472888</v>
+        <v>-150.6639384194095</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-151.6287654716</v>
+        <v>-151.2473547713212</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-152.2961875521888</v>
+        <v>-151.8895768116537</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-153.0110646246802</v>
+        <v>-152.5857624306232</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-153.7509796230883</v>
+        <v>-153.3211039196218</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-154.4709807932896</v>
+        <v>-154.0629635683605</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-155.0938255783157</v>
+        <v>-154.7504899104578</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-155.5103155004406</v>
+        <v>-155.2877033402692</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-155.6081550390274</v>
+        <v>-155.5562168640953</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-155.3301372745236</v>
+        <v>-155.4627771907175</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-154.7135572222495</v>
+        <v>-154.9975239747559</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-153.8644913951117</v>
+        <v>-154.241495219802</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-152.8981432683578</v>
+        <v>-153.3141112334225</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-151.9014203795394</v>
+        <v>-152.3194007807975</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-150.9275059448329</v>
+        <v>-151.3266263051016</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-150.0045783260343</v>
+        <v>-150.374754722545</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-149.1455868745563</v>
+        <v>-149.4829203128034</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-148.3551578702437</v>
+        <v>-148.6589675231621</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-147.633707179266</v>
+        <v>-147.904847911662</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-146.9797364080805</v>
+        <v>-147.2196932702132</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-146.3910503477836</v>
+        <v>-146.6014761676552</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-145.8653898971036</v>
+        <v>-146.047874083717</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-145.4007509347963</v>
+        <v>-145.556709054426</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-144.9955425529947</v>
+        <v>-145.1261731016138</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-144.6486579407525</v>
+        <v>-144.7549242381692</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-144.3595148462611</v>
+        <v>-144.4421432930355</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-144.1280764627793</v>
+        <v>-144.1875562132888</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-143.9548764668835</v>
+        <v>-143.9914606585651</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-143.8410523449865</v>
+        <v>-143.8547524587141</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-143.7883940106525</v>
+        <v>-143.7789703006624</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-143.799414739684</v>
+        <v>-143.7663562573908</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-143.8774453149375</v>
+        <v>-143.8199436669732</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-144.026766745779</v>
+        <v>-143.943675452123</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-144.252776234695</v>
+        <v>-144.1425566652457</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-144.5621993444151</v>
+        <v>-144.422857473534</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-144.9633369707096</v>
+        <v>-144.7923453913185</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-145.4663175061079</v>
+        <v>-145.2605459622406</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-146.0832370766096</v>
+        <v>-145.8389423698583</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-146.8278880905081</v>
+        <v>-146.5408895708611</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-147.7141903534718</v>
+        <v>-147.3806164499272</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-148.7510223031041</v>
+        <v>-148.3696011243031</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-149.9274579619762</v>
+        <v>-149.5058546382672</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-151.1751165609265</v>
+        <v>-150.7454080559612</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-152.2930394686627</v>
+        <v>-151.9388739979096</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-152.893155708826</v>
+        <v>-152.7524291185378</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-152.6138666755421</v>
+        <v>-152.767147274691</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-151.5411115569815</v>
+        <v>-151.9034995418004</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-150.0954293797141</v>
+        <v>-150.5284382238017</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-148.6102486290057</v>
+        <v>-149.0313168131937</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-147.2355577953122</v>
+        <v>-147.6135271490334</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-146.016923321329</v>
+        <v>-146.3445943445243</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-144.9584530013206</v>
+        <v>-145.2372295927703</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-144.0510931434525</v>
+        <v>-144.2847641348221</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-143.2833113842356</v>
+        <v>-143.4758183698398</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-142.6447486086267</v>
+        <v>-142.7994698942322</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-142.1272937511984</v>
+        <v>-142.2468665866944</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-141.7252705604903</v>
+        <v>-141.8115941890548</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-141.4353722954116</v>
+        <v>-141.4896481461523</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-141.2565780724915</v>
+        <v>-141.2793467019235</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-141.1901513568539</v>
+        <v>-141.181299101107</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-141.2397499737548</v>
+        <v>-141.1984819232169</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-141.4116907051052</v>
+        <v>-141.3364596714945</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-141.7153885857244</v>
+        <v>-141.6037746381619</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-142.1639922481371</v>
+        <v>-142.0125307858626</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-142.7751749212814</v>
+        <v>-142.5791596625104</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-143.571818748452</v>
+        <v>-143.3251818303755</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-144.5814508665565</v>
+        <v>-144.2771782859101</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-145.8303435361425</v>
+        <v>-145.4629958454549</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-147.3178694698829</v>
+        <v>-146.8936750716546</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-148.9268775299106</v>
+        <v>-148.4969319109686</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-150.2048574670362</v>
+        <v>-149.9310414269561</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-150.324393971979</v>
+        <v>-150.4155441418113</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-149.0712872089025</v>
+        <v>-149.4591139930685</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-147.2136027699538</v>
+        <v>-147.6753736619889</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-145.3749491694922</v>
+        <v>-145.7997464874672</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-143.7626071240526</v>
+        <v>-144.1236576923347</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-142.4052304721092</v>
+        <v>-142.7030960929924</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-141.2841355404071</v>
+        <v>-141.5253147892859</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-140.3742786461966</v>
+        <v>-140.5652461152928</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-139.6546773098289</v>
+        <v>-139.8005372979349</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-139.1102759532837</v>
+        <v>-139.2146324349314</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-138.731728568901</v>
+        <v>-138.7968216717653</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-138.5149170695649</v>
+        <v>-138.5417508348748</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-138.4607121925316</v>
+        <v>-138.4491048194529</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-138.5751311451541</v>
+        <v>-138.5236663337141</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-138.8699828231424</v>
+        <v>-138.7758364405488</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-139.3640786460747</v>
+        <v>-139.222714382404</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-140.0850367068023</v>
+        <v>-139.8897818047288</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-141.0711658212575</v>
+        <v>-140.8128822452745</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-142.3703215003389</v>
+        <v>-142.0383463479721</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-144.0206641831042</v>
+        <v>-143.6105358393478</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-145.947100810943</v>
+        <v>-145.4982973134628</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-147.5830571666282</v>
+        <v>-147.2948415071039</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-147.5926061431095</v>
+        <v>-147.7657746132403</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-145.773933601723</v>
+        <v>-146.2439070435057</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-143.4686887804598</v>
+        <v>-143.9501760564856</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-141.3972909408969</v>
+        <v>-141.8055336592563</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-139.6863675174455</v>
+        <v>-140.0162236790645</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-138.3088967659671</v>
+        <v>-138.5701728909406</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-137.219797610752</v>
+        <v>-137.4222405197397</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-136.3829202994532</v>
+        <v>-136.5337400913367</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-135.7739398781647</v>
+        <v>-135.8778531009935</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-135.3790418528425</v>
+        <v>-135.4386390396914</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-135.1936403285141</v>
+        <v>-135.2096321682217</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-135.2219830233902</v>
+        <v>-135.1932331613621</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-135.4778697145033</v>
+        <v>-135.4011877793772</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-135.9867319204833</v>
+        <v>-135.8563695990838</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-136.7893898010026</v>
+        <v>-136.5961941177958</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-137.9471722490906</v>
+        <v>-137.6776366772797</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-139.5425999928573</v>
+        <v>-139.180107586114</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-141.6340612436242</v>
+        <v>-141.1775935451896</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-143.9257895502283</v>
+        <v>-143.5055846627733</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-144.7389056230614</v>
+        <v>-144.8174278495996</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-142.7280810538384</v>
+        <v>-143.2608263730706</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-139.874014254368</v>
+        <v>-140.4134597756813</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-137.3901835551693</v>
+        <v>-137.8294673211482</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-135.4040228602407</v>
+        <v>-135.7492274723046</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-133.8410035747476</v>
+        <v>-134.1094484596609</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-132.6268574759999</v>
+        <v>-132.8318292409437</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-131.7107230023813</v>
+        <v>-131.8608469371314</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-131.0622376648779</v>
+        <v>-131.1624730578061</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-130.6673978206329</v>
+        <v>-130.7197604365664</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-130.5265662736184</v>
+        <v>-130.5303781903764</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-130.6550226109092</v>
+        <v>-130.6066559853202</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-131.0866090480135</v>
+        <v>-130.9785818730084</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-131.8820376076649</v>
+        <v>-131.7010877127456</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-133.1448324487317</v>
+        <v>-132.8683870925351</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-135.0448678520642</v>
+        <v>-134.6371574685303</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-137.7788874950825</v>
+        <v>-137.2170951947744</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-140.6166370812361</v>
+        <v>-140.2531574034714</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-139.2931765770063</v>
+        <v>-139.924381263392</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-135.1636745860207</v>
+        <v>-135.8927793895564</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-131.6222876515956</v>
+        <v>-132.1923676263867</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-128.8567594847146</v>
+        <v>-129.3017901138545</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-126.6514721025768</v>
+        <v>-127.0082172835903</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-124.8511173486977</v>
+        <v>-125.1429407520824</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-123.3585511150784</v>
+        <v>-123.6000907520166</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-122.1118188421458</v>
+        <v>-122.3125824979244</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-121.0699544267352</v>
+        <v>-121.2363510080816</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-120.2050294032886</v>
+        <v>-120.3415050605848</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-119.4976276346068</v>
+        <v>-119.6073214808735</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-118.9341806517486</v>
+        <v>-119.019317194269</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-118.5053524346943</v>
+        <v>-118.5674823809285</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-118.2050457768022</v>
+        <v>-118.2451952307357</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-118.0298004831643</v>
+        <v>-118.0485609938067</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-117.978458630365</v>
+        <v>-117.9760355820872</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-118.0520328937961</v>
+        <v>-118.0282610821554</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-118.2537536490663</v>
+        <v>-118.2080824644188</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-118.5893031654074</v>
+        <v>-118.5207485340385</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-119.0672798426473</v>
+        <v>-118.9743335255012</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-119.6999848573225</v>
+        <v>-119.5804620883893</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-120.5047051509572</v>
+        <v>-120.3554950631662</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-121.505817102911</v>
+        <v>-121.322469098515</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-122.7383350269985</v>
+        <v>-122.5143501345291</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-124.2541485490958</v>
+        <v>-123.9797114597714</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-126.1335241122968</v>
+        <v>-125.7931266961299</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-128.507040036086</v>
+        <v>-128.0749495175458</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-131.5937602878562</v>
+        <v>-131.0271329791285</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-135.6865319747827</v>
+        <v>-134.947157481178</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-139.8461074917702</v>
+        <v>-139.380059165087</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-138.6253815699618</v>
+        <v>-139.1715869968661</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-135.1712966276359</v>
+        <v>-135.6669603563426</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-132.7156397900533</v>
+        <v>-133.038913934023</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-131.1470392027844</v>
+        <v>-131.347431404492</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-130.2115245783115</v>
+        <v>-130.3225256101959</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-129.7626717132666</v>
+        <v>-129.8024437744678</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-129.7249773710687</v>
+        <v>-129.702519056149</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-130.0673936677663</v>
+        <v>-129.9856409493582</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-130.792342005189</v>
+        <v>-130.6492064461693</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-131.9350817581166</v>
+        <v>-131.7230220935708</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-133.5719919328024</v>
+        <v>-133.2761934688153</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-135.8357345575091</v>
+        <v>-135.4318728998625</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-138.8936176220897</v>
+        <v>-138.3607914423397</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-142.4153150197067</v>
+        <v>-141.9145287647088</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-143.2125441088442</v>
+        <v>-143.4223125554073</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-140.4037649337524</v>
+        <v>-140.8762312224295</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-137.6912187381697</v>
+        <v>-138.047368713176</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-135.8002955918198</v>
+        <v>-136.0361100871428</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-134.5889278336371</v>
+        <v>-134.7311483353734</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-133.9165063732138</v>
+        <v>-133.9828599683413</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-133.7023972413711</v>
+        <v>-133.7021640583894</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-133.9120458644994</v>
+        <v>-133.8482741891531</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-134.5477846342764</v>
+        <v>-134.418126894163</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-135.6488651111904</v>
+        <v>-135.4450181879808</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-137.3000208069391</v>
+        <v>-137.0059537458412</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-139.6394691421759</v>
+        <v>-139.2315194125815</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-142.7584893500776</v>
+        <v>-142.2417711887788</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-145.6546975406921</v>
+        <v>-145.3537730963192</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-144.8501823912607</v>
+        <v>-145.1976190003435</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-141.8984200576933</v>
+        <v>-142.3087259124808</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-139.4788615889234</v>
+        <v>-139.7727723026775</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-137.8369370424826</v>
+        <v>-138.0255612879182</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-136.8300934044938</v>
+        <v>-136.9338804324656</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-136.3489016187429</v>
+        <v>-136.3802967044514</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-136.3376931823454</v>
+        <v>-136.3020266265753</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-136.7844973569759</v>
+        <v>-136.6811424405643</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-137.7179829878544</v>
+        <v>-137.5401739139054</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-139.2137498526055</v>
+        <v>-138.9470706363804</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-141.402509260583</v>
+        <v>-141.0244593646258</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-144.3908214162439</v>
+        <v>-143.8990344727079</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-147.3632930926476</v>
+        <v>-147.0250211044265</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-146.8819282866829</v>
+        <v>-147.1803278325647</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-143.936764425764</v>
+        <v>-144.3352123847072</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-141.4441308135511</v>
+        <v>-141.7318154329048</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-139.7519061753111</v>
+        <v>-139.9341344820755</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-138.7245794740901</v>
+        <v>-138.8206963648834</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-138.2519224860359</v>
+        <v>-138.2737206555689</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-138.2800708530997</v>
+        <v>-138.2320312510498</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-138.8030255945076</v>
+        <v>-138.6831795657354</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-139.8612874968835</v>
+        <v>-139.6606633027078</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-141.5501656301619</v>
+        <v>-141.2510269724563</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-144.0174564093837</v>
+        <v>-143.5966343729493</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-147.2280499979448</v>
+        <v>-146.7318121245777</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-149.2450425912446</v>
+        <v>-149.1659932639109</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-147.1823640886221</v>
+        <v>-147.5781993353011</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-144.235378228473</v>
+        <v>-144.5845177173578</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-142.0721266273862</v>
+        <v>-142.3053607388987</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-140.6847566179117</v>
+        <v>-140.8202746081463</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-139.9325929411322</v>
+        <v>-139.9864427839393</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-139.731871420287</v>
+        <v>-139.7118420983482</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-140.0556936357835</v>
+        <v>-139.9623039734376</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-140.928607484826</v>
+        <v>-140.7550834567688</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-142.4322768036967</v>
+        <v>-142.1629083736898</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-144.7117221219477</v>
+        <v>-144.322046223821</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-147.8396562697334</v>
+        <v>-147.3409524346914</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-150.4590416228348</v>
+        <v>-150.2374231135799</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-148.974739897647</v>
+        <v>-149.3343645622252</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-145.8980205098775</v>
+        <v>-146.2583887788514</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-143.5621270784681</v>
+        <v>-143.8053067409777</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-142.0578713137871</v>
+        <v>-142.1991750104313</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-141.2343223039323</v>
+        <v>-141.2907998506166</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-140.9973451458979</v>
+        <v>-140.9774040217239</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-141.3161715603792</v>
+        <v>-141.2203487065471</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-142.2174583243752</v>
+        <v>-142.0383250606131</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-143.791585327267</v>
+        <v>-143.5118876303767</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-146.1964839418209</v>
+        <v>-145.7902878021305</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-149.4533275107086</v>
+        <v>-148.9507999931041</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-151.6515481622092</v>
+        <v>-151.5439016796217</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-149.5001709622545</v>
+        <v>-149.8900843764368</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-146.4324340749447</v>
+        <v>-146.7713614710876</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-144.2348391412403</v>
+        <v>-144.4559179556248</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-142.8712513510797</v>
+        <v>-142.9939752332982</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-142.1901487917581</v>
+        <v>-142.2302897038424</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-142.110297612455</v>
+        <v>-142.0746566020794</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-142.6173812999146</v>
+        <v>-142.5046901677966</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-143.7612036535541</v>
+        <v>-143.5614914430107</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-145.6661250990678</v>
+        <v>-145.3585738337163</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-148.5050396211868</v>
+        <v>-148.0679238666008</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-151.8588564087938</v>
+        <v>-151.4404643857607</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-152.0804089248792</v>
+        <v>-152.2591350913014</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-148.92209475763</v>
+        <v>-149.2582318381409</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-146.187920162996</v>
+        <v>-146.4189300824182</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-144.401661118625</v>
+        <v>-144.5284367947878</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-143.397856838284</v>
+        <v>-143.437808759385</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-143.0536354114744</v>
+        <v>-143.01568832133</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-143.3244916090524</v>
+        <v>-143.2087757265705</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-144.2364359692942</v>
+        <v>-144.0336778396249</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-145.8934590819912</v>
+        <v>-145.5814049918271</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-148.4834181536472</v>
+        <v>-148.0238193387389</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-151.9740374664672</v>
+        <v>-151.390100615457</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-153.5941133585831</v>
+        <v>-153.4723334683642</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-150.6819842778711</v>
+        <v>-150.9655265999565</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-147.6211298907213</v>
+        <v>-147.8483322102438</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-145.5785811114474</v>
+        <v>-145.7071401863254</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-144.395682404206</v>
+        <v>-144.4386110921209</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-143.9200532486974</v>
+        <v>-143.8867226113979</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-144.0885908495686</v>
+        <v>-143.9804956367145</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-144.9162337089458</v>
+        <v>-144.7260869049636</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-146.5007076993232</v>
+        <v>-146.2089924046209</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-149.0344130692401</v>
+        <v>-148.6042831320751</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-152.5629450674242</v>
+        <v>-151.9915773972614</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-154.5256433020433</v>
+        <v>-154.3120223853448</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-151.6574689629662</v>
+        <v>-151.8500820782753</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-148.4962865311797</v>
+        <v>-148.6467977594148</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-146.3988974340494</v>
+        <v>-146.4592860869219</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-145.1978999762934</v>
+        <v>-145.1774210266508</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-144.7314928563632</v>
+        <v>-144.6367409860258</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-144.9352687261312</v>
+        <v>-144.7651412922689</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-145.8299931135011</v>
+        <v>-145.5737020544634</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-147.5290410056538</v>
+        <v>-147.160299544283</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-150.252660255052</v>
+        <v>-149.7185068112811</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-153.9758846354661</v>
+        <v>-153.2547624720985</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-155.2785273556482</v>
+        <v>-154.9681926897207</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-151.9081731836866</v>
+        <v>-151.9680023905875</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-148.8347175056751</v>
+        <v>-148.8613942710077</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-146.8823902248191</v>
+        <v>-146.8285968466631</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-145.8260127375115</v>
+        <v>-145.6924979733838</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-145.5130877792982</v>
+        <v>-145.2989784214641</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-145.8970082418485</v>
+        <v>-145.5928160005922</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-147.0251484916942</v>
+        <v>-146.6071137401208</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-149.0558067157393</v>
+        <v>-148.4727147736448</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-152.2560724429222</v>
+        <v>-151.4089226591951</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-156.0428781056819</v>
+        <v>-155.0252553726968</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-155.1216623660647</v>
+        <v>-154.9572413201181</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-151.3358738426205</v>
+        <v>-151.4296972357363</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-148.6270999247263</v>
+        <v>-148.6539752892179</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-147.0122141733424</v>
+        <v>-146.9465401269931</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-146.2481313644297</v>
+        <v>-146.092360018595</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-146.2189306073877</v>
+        <v>-145.9703351636774</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-146.9158971857485</v>
+        <v>-146.5598267119733</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-148.435689435063</v>
+        <v>-147.9358537925033</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-151.012197108164</v>
+        <v>-150.2858865299926</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-154.8787866639075</v>
+        <v>-153.7822422413719</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-157.3655696533062</v>
+        <v>-156.4849563310446</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-153.9615734250206</v>
+        <v>-153.8875635200003</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-150.5107665898626</v>
+        <v>-150.4948300455877</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-148.3470968207026</v>
+        <v>-148.2525429481499</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-147.1776762710888</v>
+        <v>-146.9914974928544</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-146.8110131915048</v>
+        <v>-146.5281705178095</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-147.1875074876467</v>
+        <v>-146.7938865270709</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-148.3581818344387</v>
+        <v>-147.8206766893261</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-150.5064957153167</v>
+        <v>-149.751637876058</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-153.9613418242489</v>
+        <v>-152.8342447022487</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-157.9201030005989</v>
+        <v>-156.5555205713138</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-156.1099760986142</v>
+        <v>-155.9194235625959</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-152.1368840224333</v>
+        <v>-152.2119061648449</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-149.5069490180891</v>
+        <v>-149.4999865395559</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-148.0058154341142</v>
+        <v>-147.8913160818885</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.3741897576969</v>
+        <v>-147.1534173798517</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-147.5074977392068</v>
+        <v>-147.1745585659829</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-148.4199019746509</v>
+        <v>-147.9532455560889</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-150.2502956792554</v>
+        <v>-149.5986972968604</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-153.2983599094925</v>
+        <v>-152.3501247264152</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-157.5078241937237</v>
+        <v>-156.2124917521461</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-157.7132450936023</v>
+        <v>-157.3483482747368</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-153.6077057600948</v>
+        <v>-153.6978174704572</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-150.6059365911929</v>
+        <v>-150.6098094477089</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-148.8419285131364</v>
+        <v>-148.7223645547667</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-148.0132991427421</v>
+        <v>-147.7752043890296</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-147.9802108294444</v>
+        <v>-147.6200546549079</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-148.7329838173607</v>
+        <v>-148.2297981360963</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-150.3900021641873</v>
+        <v>-149.6905342194489</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-153.2481507777023</v>
+        <v>-152.2254658299669</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-157.5829443173456</v>
+        <v>-156.0209398325911</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-159.2057800576915</v>
+        <v>-158.2760197072321</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-154.9405570306672</v>
+        <v>-154.8939664540575</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-151.5983084559325</v>
+        <v>-151.5346541281677</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-149.629129579708</v>
+        <v>-149.4446423840075</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-148.66521716792</v>
+        <v>-148.3529035450712</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-148.5316193087032</v>
+        <v>-148.082741094386</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-149.2012932491769</v>
+        <v>-148.5889949665574</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-150.7831215262336</v>
+        <v>-149.9438810114112</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-153.5773418217219</v>
+        <v>-152.3610740883165</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-157.9873616408355</v>
+        <v>-156.0987506817517</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-160.2330068099241</v>
+        <v>-158.9418069352655</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-155.8046783097904</v>
+        <v>-155.791956847863</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-152.2791229814496</v>
+        <v>-152.2578455437813</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-150.2178986145468</v>
+        <v>-150.0431179270128</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-149.2035814563222</v>
+        <v>-148.8686602879475</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-149.042956195984</v>
+        <v>-148.5382696845393</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-149.7040444741094</v>
+        <v>-148.9962560474132</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-151.2997785717384</v>
+        <v>-150.3089729493395</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-154.1514002997206</v>
+        <v>-152.6894218650885</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-158.7232046999965</v>
+        <v>-156.4311891985618</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-160.8408772239067</v>
+        <v>-159.5231725834836</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-156.1216327210046</v>
+        <v>-156.4166196365457</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.5701339722127</v>
+        <v>-152.788675482775</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-150.5153915351411</v>
+        <v>-150.5223393520469</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-149.5118689881886</v>
+        <v>-149.3209079840138</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-149.3634969897527</v>
+        <v>-148.9776374844125</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-150.0378089445866</v>
+        <v>-149.4334650664443</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-151.6443775275342</v>
+        <v>-150.7559199026422</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-154.4802768471934</v>
+        <v>-153.1659837601461</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-158.8163315430551</v>
+        <v>-156.9790478170839</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-160.2895456248097</v>
+        <v>-160.0839759937477</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-155.9450354626351</v>
+        <v>-156.8074910359463</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-152.6046466989475</v>
+        <v>-153.1553586089658</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-150.6452637010297</v>
+        <v>-150.9004271077696</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-149.6966765807247</v>
+        <v>-149.7186436548644</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-149.5866598351386</v>
+        <v>-149.4012348522469</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-150.2921000405493</v>
+        <v>-149.8920904632064</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-151.9278463673284</v>
+        <v>-151.2659950529942</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-154.7980737149712</v>
+        <v>-153.7598629404818</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-159.201114226258</v>
+        <v>-157.7024027756717</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-160.754616330545</v>
+        <v>-160.6093692280213</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-156.3820145520336</v>
+        <v>-157.0119620572304</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-153.0517252442064</v>
+        <v>-153.3974635975963</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-151.1228317059772</v>
+        <v>-151.2029465306857</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-150.218506921574</v>
+        <v>-150.0762101291183</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-150.1693243019652</v>
+        <v>-149.8138588957551</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-150.9620123549107</v>
+        <v>-150.3678146055904</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-152.73460160223</v>
+        <v>-151.8251048934484</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-155.8450842313197</v>
+        <v>-154.445540431161</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-160.5571575461692</v>
+        <v>-158.5595591585051</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-161.0111575353296</v>
+        <v>-161.0495486395095</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-156.3253877720715</v>
+        <v>-157.0839267246361</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-153.140745356385</v>
+        <v>-153.5584095113753</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-151.3418316978023</v>
+        <v>-151.4572880763545</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-150.5482143913765</v>
+        <v>-150.4088575131934</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-150.6076648089643</v>
+        <v>-150.220731745331</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-151.5245733348891</v>
+        <v>-150.8564088015846</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-153.460442869879</v>
+        <v>-152.4188939212911</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-156.7903879756203</v>
+        <v>-155.1965402421961</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-161.3166396588008</v>
+        <v>-159.5026441889333</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-160.1738117147902</v>
+        <v>-161.3660687508969</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-155.7495284179147</v>
+        <v>-157.0830948012641</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-152.8694269349275</v>
+        <v>-153.6806339742417</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-151.2547900859698</v>
+        <v>-151.6893262521641</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-150.5882153205552</v>
+        <v>-150.730266450771</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-150.7501836039957</v>
+        <v>-150.625345503177</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-151.7658697987283</v>
+        <v>-151.3514881336691</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-153.8221515137604</v>
+        <v>-153.0299410323238</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-157.355506915157</v>
+        <v>-155.9813673765573</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-162.2223568547551</v>
+        <v>-160.4754888425051</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-160.5905856857615</v>
+        <v>-161.564138821491</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-156.0007764422741</v>
+        <v>-157.0677988075425</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-153.1475498469231</v>
+        <v>-153.8008389687496</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-151.5834194893964</v>
+        <v>-151.920203281672</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-150.9738751169664</v>
+        <v>-151.049968539204</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-151.2006557266885</v>
+        <v>-151.0270509876586</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-152.2942494274598</v>
+        <v>-151.8419212430722</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-154.4450720205782</v>
+        <v>-153.6344808848735</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-158.0294652800026</v>
+        <v>-156.7589886734042</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-162.0912368939866</v>
+        <v>-161.4161495009986</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-159.6490784423392</v>
+        <v>-161.7017333143913</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-155.5596151269477</v>
+        <v>-157.0922716381919</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-152.9757411899338</v>
+        <v>-153.950274764412</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-151.5563714866942</v>
+        <v>-152.1668490373012</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-151.0365076428996</v>
+        <v>-151.3738459749509</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-151.324752226369</v>
+        <v>-151.4215187421428</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-152.4632934234597</v>
+        <v>-152.3121778842054</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-154.6487944633039</v>
+        <v>-154.2024703582455</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-158.2677495611442</v>
+        <v>-157.4782916879545</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-162.4273974895978</v>
+        <v>-162.2667654342053</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-160.0493171352909</v>
+        <v>-161.8676122023519</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-155.9486142736031</v>
+        <v>-157.2034184962131</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-153.3695610093864</v>
+        <v>-154.154585722337</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-151.9638893889428</v>
+        <v>-152.441993632599</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-151.4639199694502</v>
+        <v>-151.7041640965122</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-151.7807433000026</v>
+        <v>-151.8007932577316</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-152.9670942478096</v>
+        <v>-152.7424673734693</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-155.2576799250207</v>
+        <v>-154.6978345553106</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-159.2193290912738</v>
+        <v>-158.0784081706237</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-164.6250066425636</v>
+        <v>-162.9805309583017</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-161.5460670053172</v>
+        <v>-162.1605355724777</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-156.8254261410299</v>
+        <v>-157.445630349685</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-154.0831173514182</v>
+        <v>-154.4378819102219</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-152.6278051243738</v>
+        <v>-152.7572806608242</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-152.1189908068437</v>
+        <v>-152.0423071794401</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-152.4488895468434</v>
+        <v>-152.156060502106</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-153.6643947743962</v>
+        <v>-153.1119466964923</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-155.9877113362224</v>
+        <v>-155.0827427715664</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-159.8484063650634</v>
+        <v>-158.4941155780063</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-163.7719274435061</v>
+        <v>-163.5095298033312</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-160.4437027818853</v>
+        <v>-162.6762684954273</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-156.3901030136869</v>
+        <v>-157.8663100151793</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-153.9085238019697</v>
+        <v>-154.8266484759654</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-152.5645922622223</v>
+        <v>-153.1262772762258</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-152.1009765670435</v>
+        <v>-152.3915236276955</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-152.4364364928175</v>
+        <v>-152.4806517059822</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-153.6257883918017</v>
+        <v>-153.4025902895494</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-155.8971066186024</v>
+        <v>-155.323411468033</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-159.7727313612784</v>
+        <v>-158.6643919465432</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-164.810986029293</v>
+        <v>-163.7667174344886</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-161.9081902531605</v>
+        <v>-163.5051715648982</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-157.3258493510277</v>
+        <v>-158.5271262910856</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-154.5863480428897</v>
+        <v>-155.356865536869</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-153.090649645245</v>
+        <v>-153.5698051850873</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-152.5117670279547</v>
+        <v>-152.7616968483776</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-152.737300095961</v>
+        <v>-152.7750434365068</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-153.7980559170828</v>
+        <v>-153.6054035503079</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-155.8872602322431</v>
+        <v>-155.3994360255371</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-159.4682397127889</v>
+        <v>-158.5485782389767</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-164.6076496833668</v>
+        <v>-163.6039521275047</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-163.0949495202544</v>
+        <v>-164.7089431111704</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-158.2907199381734</v>
+        <v>-159.5218844483108</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-155.32730104839</v>
+        <v>-156.0846792311139</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-153.6725588135328</v>
+        <v>-154.1233236446237</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-152.9602411291318</v>
+        <v>-153.1754794032197</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-153.0531973434362</v>
+        <v>-153.0528625852494</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-153.9598864903571</v>
+        <v>-153.7272930194889</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-155.8397767612285</v>
+        <v>-155.3132244476483</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-159.0979232208493</v>
+        <v>-158.144625887694</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-164.1435901692158</v>
+        <v>-162.8783101213011</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-164.4046974963193</v>
+        <v>-166.1460772036182</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-159.3749513768161</v>
+        <v>-161.0038824602257</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-156.0915032097789</v>
+        <v>-157.103150996313</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-154.2072166121889</v>
+        <v>-154.8472199943466</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-153.2991339036915</v>
+        <v>-153.6758526221176</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-153.1941120514638</v>
+        <v>-153.3473498040624</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-153.8689634100541</v>
+        <v>-153.7973409820927</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-155.4380587140438</v>
+        <v>-155.0969467698291</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-158.234175168596</v>
+        <v>-157.50147199377</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-162.9749162186744</v>
+        <v>-161.6082418852394</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-166.9410486994927</v>
+        <v>-166.8797641875863</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-161.6720775580962</v>
+        <v>-163.2249968973233</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-157.5773359869379</v>
+        <v>-158.576940580277</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-155.2181976375481</v>
+        <v>-155.8460934094</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-153.9709339305825</v>
+        <v>-154.3386672658718</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-153.5703123144799</v>
+        <v>-153.7205713092947</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-153.9383638319614</v>
+        <v>-153.8738644064274</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-155.1310999008018</v>
+        <v>-154.8169457011855</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-157.3772921435898</v>
+        <v>-156.7176408909167</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-161.2371245380547</v>
+        <v>-160.0129339649078</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-166.8897694813924</v>
+        <v>-165.4252701379952</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-164.371232036984</v>
+        <v>-166.3806496729849</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-159.3310074511601</v>
+        <v>-160.8140228768665</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-156.3424044933115</v>
+        <v>-157.3041174543116</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-154.6494008786396</v>
+        <v>-155.2915459814321</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-153.8633340781012</v>
+        <v>-154.274387548265</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-153.8347771780074</v>
+        <v>-154.0499873936922</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-154.5496213584314</v>
+        <v>-154.5727881860701</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-156.1190060105943</v>
+        <v>-155.9245292972979</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-158.8484808231214</v>
+        <v>-158.3715754379105</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-163.3418627580174</v>
+        <v>-162.5545905621827</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-167.221664641761</v>
+        <v>-168.2195406587268</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-162.5704915925663</v>
+        <v>-164.4094141854386</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-158.5064656940264</v>
+        <v>-159.5758386544903</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-156.0971171334552</v>
+        <v>-156.7583858606192</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-154.774129780676</v>
+        <v>-155.1748600270465</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-154.2706401477981</v>
+        <v>-154.4670536484626</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-154.4952762634427</v>
+        <v>-154.5016640795749</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-155.4764196708881</v>
+        <v>-155.2762170891355</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-157.3818775579295</v>
+        <v>-156.9181973426483</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-160.6369002897834</v>
+        <v>-159.7779707177702</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-165.9872009950945</v>
+        <v>-164.660249711466</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-167.45749660151</v>
+        <v>-169.0889170537383</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-161.8454089112414</v>
+        <v>-163.4360104378146</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-158.2267158647796</v>
+        <v>-159.1741677657423</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-156.1212672597514</v>
+        <v>-156.7075028638814</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-155.0041588420381</v>
+        <v>-155.3434421207495</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-154.6562955596663</v>
+        <v>-154.7922285452023</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-155.012952914682</v>
+        <v>-154.9525003693943</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-156.1223359977011</v>
+        <v>-155.8413891611231</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-158.1769853702608</v>
+        <v>-157.606562055294</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-161.6494054888077</v>
+        <v>-160.6367914974301</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-167.2307906236113</v>
+        <v>-165.8230399284385</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-167.3753879713755</v>
+        <v>-169.6288441788731</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-161.8424357061052</v>
+        <v>-163.5672927370239</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-158.4088650405526</v>
+        <v>-159.4444589007678</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-156.3980190901628</v>
+        <v>-157.0559682576646</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-155.3259084470899</v>
+        <v>-155.7292052516723</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-154.9901689866807</v>
+        <v>-155.1880131885612</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-155.3300178069466</v>
+        <v>-155.3346666103551</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-156.3886523325411</v>
+        <v>-156.1830697071518</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-158.3410631631841</v>
+        <v>-157.8684604219454</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-161.6198576635139</v>
+        <v>-160.7476414314742</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-167.0655976760548</v>
+        <v>-165.6865434776696</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-169.013710992039</v>
+        <v>-170.8356367372203</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-163.1768272688434</v>
+        <v>-164.9012020101563</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-159.429302566222</v>
+        <v>-160.4239528683314</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-157.2303243760769</v>
+        <v>-157.8345543919491</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-156.014273695608</v>
+        <v>-156.357256161238</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-155.5433467239675</v>
+        <v>-155.6743325210059</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-155.7346810240321</v>
+        <v>-155.664140156212</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-156.6074507799263</v>
+        <v>-156.3158212694199</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-158.2947477664018</v>
+        <v>-157.7230758596589</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-161.1336028906235</v>
+        <v>-160.1493318457863</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-165.8683631305593</v>
+        <v>-164.2544925237248</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-170.4302302258219</v>
+        <v>-170.8794117512873</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-165.146359867061</v>
+        <v>-167.9875144983253</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-160.7935327769445</v>
+        <v>-162.4242904360833</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-158.202527956708</v>
+        <v>-159.2412277027213</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-156.6852032541069</v>
+        <v>-157.377177105984</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-155.9355572314404</v>
+        <v>-156.3800607838192</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-155.8285359215077</v>
+        <v>-156.0662017030705</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-156.3403004368822</v>
+        <v>-156.3790631462541</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-157.5352341178763</v>
+        <v>-157.3540760814792</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-159.6056227752171</v>
+        <v>-159.1412952076931</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-163.0118147985322</v>
+        <v>-162.118239762457</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-168.6652284131209</v>
+        <v>-167.2395642046399</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-170.3318981996244</v>
+        <v>-172.844858360723</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-164.3389884998444</v>
+        <v>-166.3936361539037</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-160.5844216506177</v>
+        <v>-161.8029747880569</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-158.3505345062882</v>
+        <v>-159.150141538725</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-157.0631989178214</v>
+        <v>-157.5968806023989</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-156.4780270929816</v>
+        <v>-156.8089360594944</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-156.4982811499747</v>
+        <v>-156.6503559007208</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-157.1155795134493</v>
+        <v>-157.0878845689202</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-158.4058893921878</v>
+        <v>-158.17169614088</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-160.5771027511818</v>
+        <v>-160.0665944415842</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-164.1331945955665</v>
+        <v>-163.1783157117142</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-170.1985882582076</v>
+        <v>-168.5535469078872</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-171.7128496246548</v>
+        <v>-173.949705380461</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-165.3155664149446</v>
+        <v>-167.0565724351646</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-161.5376195953703</v>
+        <v>-162.5485585611914</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-159.306334943533</v>
+        <v>-159.9399643257084</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-158.0157807157304</v>
+        <v>-158.4002480834179</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-157.4155042294267</v>
+        <v>-157.6014998504404</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-157.4046504844287</v>
+        <v>-157.4073055010937</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-157.9683138843039</v>
+        <v>-157.778053781072</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-159.1695683090774</v>
+        <v>-158.7485445846329</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-161.1872584309841</v>
+        <v>-160.4481775636438</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-164.4512594133467</v>
+        <v>-163.1911190579711</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-170.0256796470484</v>
+        <v>-167.783180821134</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-174.3563258208536</v>
+        <v>-175.2648651779524</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-167.6344612605717</v>
+        <v>-170.5632833904401</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-163.3894584243676</v>
+        <v>-165.0961742981343</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-160.9146541246404</v>
+        <v>-162.0565858717325</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-159.4636384994043</v>
+        <v>-160.2820010136727</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-158.7358235972956</v>
+        <v>-159.335801332701</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-158.6080441949968</v>
+        <v>-159.0458924243396</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-159.0520028944602</v>
+        <v>-159.3701146783189</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-160.1204578877301</v>
+        <v>-160.390890511847</v>
       </c>
     </row>
     <row r="601">
@@ -5235,15 +5235,17 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-169.8327793473423</v>
+        <v>-162.6233513088686</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
         <v>2.096724796611653</v>
       </c>
-      <c r="B602" t="n">
-        <v>-162.5143038331333</v>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="603">

--- a/RT_radpat_60deg.xlsx
+++ b/RT_radpat_60deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-148.5574734779886</v>
+        <v>-148.6972580489389</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-148.8830697177168</v>
+        <v>-149.0365113089204</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-149.2525117933157</v>
+        <v>-149.4205630025198</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-149.6698002515985</v>
+        <v>-149.8534076600163</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-150.1390112315928</v>
+        <v>-150.3390187502685</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-150.6639384194095</v>
+        <v>-150.8808789644639</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-151.2473547713212</v>
+        <v>-151.4810681831903</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-151.8895768116537</v>
+        <v>-152.1384988466173</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-152.5857624306232</v>
+        <v>-152.8456804291533</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-153.3211039196218</v>
+        <v>-153.5830741608693</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-154.0629635683605</v>
+        <v>-154.3103871645235</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-154.7504899104578</v>
+        <v>-154.9564985287129</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-155.2877033402692</v>
+        <v>-155.4168189770575</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-155.5562168640953</v>
+        <v>-155.5760962755883</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-155.4627771907175</v>
+        <v>-155.3634655600693</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-154.9975239747559</v>
+        <v>-154.7997523564956</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-154.241495219802</v>
+        <v>-153.9831507328026</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-153.3141112334225</v>
+        <v>-153.0308374282039</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-152.3194007807975</v>
+        <v>-152.0356336340305</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-151.3266263051016</v>
+        <v>-151.0560897926864</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-150.374754722545</v>
+        <v>-150.1239691614201</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-149.4829203128034</v>
+        <v>-149.2542995748726</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-148.6589675231621</v>
+        <v>-148.4528062167697</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-147.904847911662</v>
+        <v>-147.7204506464722</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-147.2196932702132</v>
+        <v>-147.0559699730379</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-146.6014761676552</v>
+        <v>-146.4572477051429</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-146.047874083717</v>
+        <v>-145.922019650685</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-145.556709054426</v>
+        <v>-145.4482349573757</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-145.1261731016138</v>
+        <v>-145.0342356846377</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-144.7549242381692</v>
+        <v>-144.6788418390997</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-144.4421432930355</v>
+        <v>-144.3813928999972</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-144.1875562132888</v>
+        <v>-144.1417728564064</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-143.9914606585651</v>
+        <v>-143.9604330714132</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-143.8547524587141</v>
+        <v>-143.8384267990342</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-143.7789703006624</v>
+        <v>-143.7774522313153</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-143.7663562573908</v>
+        <v>-143.7799235436156</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-143.8199436669732</v>
+        <v>-143.8490606722768</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-143.943675452123</v>
+        <v>-143.9890148749825</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-144.1425566652457</v>
+        <v>-144.2050323598793</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-144.422857473534</v>
+        <v>-144.503660356969</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-144.7923453913185</v>
+        <v>-144.8929871771008</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-145.2605459622406</v>
+        <v>-145.3828953316919</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-145.8389423698583</v>
+        <v>-145.9852250538335</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-146.5408895708611</v>
+        <v>-146.7135652036071</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-147.3806164499272</v>
+        <v>-147.5819073236042</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-148.3696011243031</v>
+        <v>-148.6000769555999</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-149.5058546382672</v>
+        <v>-149.7605777734678</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-150.7454080559612</v>
+        <v>-151.004571616512</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-151.9388739979096</v>
+        <v>-152.1511428762498</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-152.7524291185378</v>
+        <v>-152.8318554305847</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-152.767147274691</v>
+        <v>-152.6603707666616</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-151.9034995418004</v>
+        <v>-151.6620854672306</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-150.5284382238017</v>
+        <v>-150.2415500183224</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-149.0313168131937</v>
+        <v>-148.7528222063995</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-147.6135271490334</v>
+        <v>-147.3636176864225</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-146.3445943445243</v>
+        <v>-146.1277249100686</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-145.2372295927703</v>
+        <v>-145.0522665866771</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-144.2847641348221</v>
+        <v>-144.1290729343639</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-143.4758183698398</v>
+        <v>-143.3467096312672</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-142.7994698942322</v>
+        <v>-142.6946497616636</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-142.2468665866944</v>
+        <v>-142.1645407146881</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-141.8115941890548</v>
+        <v>-141.7504568446921</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-141.4896481461523</v>
+        <v>-141.448846241224</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-141.2793467019235</v>
+        <v>-141.2584524594953</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-141.181299101107</v>
+        <v>-141.1802971907453</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-141.1984819232169</v>
+        <v>-141.2177822187622</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-141.3364596714945</v>
+        <v>-141.376934932167</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-141.6037746381619</v>
+        <v>-141.6668274401535</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-142.0125307858626</v>
+        <v>-142.1001920468908</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-142.5791596625104</v>
+        <v>-142.6941980043297</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-143.3251818303755</v>
+        <v>-143.471163211429</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-144.2771782859101</v>
+        <v>-144.4582019839297</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-145.4629958454549</v>
+        <v>-145.6821774940711</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-146.8936750716546</v>
+        <v>-147.1471778046484</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-148.4969319109686</v>
+        <v>-148.7544052191006</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-149.9310414269561</v>
+        <v>-150.0956258424233</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-150.4155441418113</v>
+        <v>-150.3565865439864</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-149.4591139930685</v>
+        <v>-149.2126177373974</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-147.6753736619889</v>
+        <v>-147.3810847183138</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-145.7997464874672</v>
+        <v>-145.5289506135051</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-144.1236576923347</v>
+        <v>-143.8934939920336</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-142.7030960929924</v>
+        <v>-142.5130574767302</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-141.5253147892859</v>
+        <v>-141.3711179911153</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-140.5652461152928</v>
+        <v>-140.4426632736171</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-139.8005372979349</v>
+        <v>-139.7062369503772</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-139.2146324349314</v>
+        <v>-139.1462507955586</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-138.7968216717653</v>
+        <v>-138.7528602759349</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-138.5417508348748</v>
+        <v>-138.5214866011986</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-138.4491048194529</v>
+        <v>-138.452549106449</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-138.5236663337141</v>
+        <v>-138.5515845007414</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-138.7758364405488</v>
+        <v>-138.829841585497</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-139.222714382404</v>
+        <v>-139.3054412138028</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-139.8897818047288</v>
+        <v>-140.005126844988</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-140.8128822452745</v>
+        <v>-140.9661826086636</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-142.0383463479721</v>
+        <v>-142.2358142999166</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-143.6105358393478</v>
+        <v>-143.8547658613661</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-145.4982973134628</v>
+        <v>-145.7664935663705</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-147.2948415071039</v>
+        <v>-147.4704720649577</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-147.7657746132403</v>
+        <v>-147.662732699286</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-146.2439070435057</v>
+        <v>-145.9536149718566</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-143.9501760564856</v>
+        <v>-143.6512098043722</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-141.8055336592563</v>
+        <v>-141.5521379488977</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-140.0162236790645</v>
+        <v>-139.8116952474381</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-138.5701728909406</v>
+        <v>-138.4082565761829</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-137.4222405197397</v>
+        <v>-137.296734518386</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-136.5337400913367</v>
+        <v>-136.4400551459974</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-135.8778531009935</v>
+        <v>-135.81296746605</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-135.4386390396914</v>
+        <v>-135.4008552138712</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-135.2096321682217</v>
+        <v>-135.1984098878192</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-135.1932331613621</v>
+        <v>-135.2091548929198</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-135.4011877793772</v>
+        <v>-135.4460723157256</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-135.8563695990838</v>
+        <v>-135.933562717957</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-136.5961941177958</v>
+        <v>-136.7110637633539</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-137.6776366772797</v>
+        <v>-137.8381458487829</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-139.180107586114</v>
+        <v>-139.3961838431542</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-141.1775935451896</v>
+        <v>-141.4507638300985</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-143.5055846627733</v>
+        <v>-143.763540520291</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-144.8174278495996</v>
+        <v>-144.7857008178502</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-143.2608263730706</v>
+        <v>-142.9444258910626</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-140.4134597756813</v>
+        <v>-140.0877244492177</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-137.8294673211482</v>
+        <v>-137.5638685105661</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-135.7492274723046</v>
+        <v>-135.5407612984969</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-134.1094484596609</v>
+        <v>-133.9475798192749</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-132.8318292409437</v>
+        <v>-132.7083966210953</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-131.8608469371314</v>
+        <v>-131.7705224423872</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-131.1624730578061</v>
+        <v>-131.1021572678127</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-130.7197604365664</v>
+        <v>-130.6881314163919</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-130.5303781903764</v>
+        <v>-130.5277255408996</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-130.6066559853202</v>
+        <v>-130.6350145329982</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-130.9785818730084</v>
+        <v>-131.0422477566331</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-131.7010877127456</v>
+        <v>-131.8077286308726</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-132.8683870925351</v>
+        <v>-133.0310962287505</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-134.6371574685303</v>
+        <v>-134.8768493576901</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-137.2170951947744</v>
+        <v>-137.549056691687</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-140.2531574034714</v>
+        <v>-140.4876754968193</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-139.924381263392</v>
+        <v>-139.5655212882011</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-135.8927793895564</v>
+        <v>-135.4601003710384</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-132.1923676263867</v>
+        <v>-131.8537364190393</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-129.3017901138545</v>
+        <v>-129.0381280959764</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-127.0082172835903</v>
+        <v>-126.7974488564434</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-125.1429407520824</v>
+        <v>-124.9709826339691</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-123.6000907520166</v>
+        <v>-123.458121850322</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-122.3125824979244</v>
+        <v>-122.1948753068902</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-121.2363510080816</v>
+        <v>-121.1390436592891</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-120.3415050605848</v>
+        <v>-120.2619147075916</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-119.6073214808735</v>
+        <v>-119.5435487732028</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-119.019317194269</v>
+        <v>-118.9700095143808</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-118.5674823809285</v>
+        <v>-118.5316884433847</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-118.2451952307357</v>
+        <v>-118.2222748784193</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-118.0485609938067</v>
+        <v>-118.0381304356354</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-117.9760355820872</v>
+        <v>-117.977937354857</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-118.0282610821554</v>
+        <v>-118.0425533316201</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-118.2080824644188</v>
+        <v>-118.2350459513109</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-118.5207485340385</v>
+        <v>-118.5609127641577</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-118.9743335255012</v>
+        <v>-119.0285270188282</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-119.5804620883893</v>
+        <v>-119.6498976680712</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-120.3554950631662</v>
+        <v>-120.4419096799436</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-121.322469098515</v>
+        <v>-121.4283556174198</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-122.5143501345291</v>
+        <v>-122.6433543178459</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-123.9797114597714</v>
+        <v>-124.1373404484139</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-125.7931266961299</v>
+        <v>-125.9880748992</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-128.0749495175458</v>
+        <v>-128.3216266367791</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-131.0271329791285</v>
+        <v>-131.3495810136686</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-134.947157481178</v>
+        <v>-135.3684620700735</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-139.380059165087</v>
+        <v>-139.6668333629561</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-139.1715869968661</v>
+        <v>-138.8651271453074</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-135.6669603563426</v>
+        <v>-135.3801397655162</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-133.038913934023</v>
+        <v>-132.8517261717316</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-131.347431404492</v>
+        <v>-131.2313420506015</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-130.3225256101959</v>
+        <v>-130.2578831347696</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-129.8024437744678</v>
+        <v>-129.7785453851704</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-129.702519056149</v>
+        <v>-129.7139961161492</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-129.9856409493582</v>
+        <v>-130.0306168631895</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-130.6492064461693</v>
+        <v>-130.7286551345846</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-131.7230220935708</v>
+        <v>-131.8409591254678</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-133.2761934688153</v>
+        <v>-133.4406422578105</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-135.4318728998625</v>
+        <v>-135.6560846554494</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-138.3607914423397</v>
+        <v>-138.656591283437</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-141.9145287647088</v>
+        <v>-142.1986399846827</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-143.4223125554073</v>
+        <v>-143.3133603456847</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-140.8762312224295</v>
+        <v>-140.6074307721867</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-138.047368713176</v>
+        <v>-137.8434474472786</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-136.0361100871428</v>
+        <v>-135.9005447377606</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-134.7311483353734</v>
+        <v>-134.6484906333152</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-133.9828599683413</v>
+        <v>-133.9427804118737</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-133.7021640583894</v>
+        <v>-133.6991659468253</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-133.8482741891531</v>
+        <v>-133.8803795150449</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-134.418126894163</v>
+        <v>-134.4863390913744</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-135.4450181879808</v>
+        <v>-135.5535484078934</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-137.0059537458412</v>
+        <v>-137.163071864331</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-139.2315194125815</v>
+        <v>-139.4493426243082</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-142.2417711887788</v>
+        <v>-142.5170948251285</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-145.3537730963192</v>
+        <v>-145.515604945894</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-145.1976190003435</v>
+        <v>-145.0000752051628</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-142.3087259124808</v>
+        <v>-142.0741261277538</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-139.7727723026775</v>
+        <v>-139.6041551038867</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-138.0255612879182</v>
+        <v>-137.9160426945925</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-136.9338804324656</v>
+        <v>-136.8714362075067</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-136.3802967044514</v>
+        <v>-136.3575784507838</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-136.3020266265753</v>
+        <v>-136.3157165693086</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-136.6811424405643</v>
+        <v>-136.7311949043124</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-137.5401739139054</v>
+        <v>-137.6297964941815</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-138.9470706363804</v>
+        <v>-139.0833787736174</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-141.0244593646258</v>
+        <v>-141.2184581770919</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-143.8990344727079</v>
+        <v>-144.1507446462849</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-147.0250211044265</v>
+        <v>-147.1958466884906</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-147.1803278325647</v>
+        <v>-147.0080465232536</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-144.3352123847072</v>
+        <v>-144.1079808255053</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-141.7318154329048</v>
+        <v>-141.5668101894541</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-139.9341344820755</v>
+        <v>-139.8272989221384</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-138.8206963648834</v>
+        <v>-138.7606267883245</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-138.2737206555689</v>
+        <v>-138.2534408209372</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-138.2320312510498</v>
+        <v>-138.2486336100062</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-138.6831795657354</v>
+        <v>-138.7371950979533</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-139.6606633027078</v>
+        <v>-139.7561862513742</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-141.2510269724563</v>
+        <v>-141.3963952897976</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-143.5966343729493</v>
+        <v>-143.8023546531146</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-146.7318121245777</v>
+        <v>-146.9730541495113</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-149.1659932639109</v>
+        <v>-149.1936595318693</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-147.5781993353011</v>
+        <v>-147.3553113902973</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-144.5845177173578</v>
+        <v>-144.3887361729513</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-142.3053607388987</v>
+        <v>-142.172579947647</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-140.8202746081463</v>
+        <v>-140.7395636079305</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-139.9864427839393</v>
+        <v>-139.9485497815092</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-139.7118420983482</v>
+        <v>-139.7121127191954</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-139.9623039734376</v>
+        <v>-139.9999263696626</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-140.7550834567688</v>
+        <v>-140.8329021826869</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-142.1629083736898</v>
+        <v>-142.2880004508746</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-144.322046223821</v>
+        <v>-144.5051661183012</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-147.3409524346914</v>
+        <v>-147.5741594224876</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-150.2374231135799</v>
+        <v>-150.3303318405665</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-149.3343645622252</v>
+        <v>-149.1308627644847</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-146.2583887788514</v>
+        <v>-146.0581053999188</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-143.8053067409777</v>
+        <v>-143.6681175446484</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-142.1991750104313</v>
+        <v>-142.1153791782758</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-141.2907998506166</v>
+        <v>-141.2506139274367</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-140.9774040217239</v>
+        <v>-140.9758505455675</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-141.2203487065471</v>
+        <v>-141.2565397712418</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-142.0383250606131</v>
+        <v>-142.1152625850448</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-143.5118876303767</v>
+        <v>-143.6370577397973</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-145.7902878021305</v>
+        <v>-145.9745168817716</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-148.9507999931041</v>
+        <v>-149.1767588270308</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-151.5439016796217</v>
+        <v>-151.5757396867631</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-149.8900843764368</v>
+        <v>-149.6755786030411</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-146.7713614710876</v>
+        <v>-146.587498017012</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-144.4559179556248</v>
+        <v>-144.3342569237251</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-142.9939752332982</v>
+        <v>-142.9230371414951</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-142.2302897038424</v>
+        <v>-142.2013779443148</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-142.0746566020794</v>
+        <v>-142.0839610857878</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-142.5046901677966</v>
+        <v>-142.5525592448256</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-143.5614914430107</v>
+        <v>-143.6525231837954</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-145.3585738337163</v>
+        <v>-145.5022377582011</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-148.0679238666008</v>
+        <v>-148.2721941064833</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-151.4404643857607</v>
+        <v>-151.6242672245791</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-152.2591350913014</v>
+        <v>-152.1271780048969</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-149.2582318381409</v>
+        <v>-149.0494861865454</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-146.4189300824182</v>
+        <v>-146.2708571791358</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-144.5284367947878</v>
+        <v>-144.4369084545794</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-143.437808759385</v>
+        <v>-143.3916794260407</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-143.01568832133</v>
+        <v>-143.0089923390286</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-143.2087757265705</v>
+        <v>-143.2401736782648</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-144.0336778396249</v>
+        <v>-144.1061405734415</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-145.5814049918271</v>
+        <v>-145.7028419468973</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-148.0238193387389</v>
+        <v>-148.2052894787332</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-151.390100615457</v>
+        <v>-151.6004468497449</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-153.4723334683642</v>
+        <v>-153.4284659440003</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-150.9655265999565</v>
+        <v>-150.753153621044</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-147.8483322102438</v>
+        <v>-147.6881393375073</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-145.7071401863254</v>
+        <v>-145.6063587741793</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-144.4386110921209</v>
+        <v>-144.3851095851898</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-143.8867226113979</v>
+        <v>-143.8733905491161</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-143.9804956367145</v>
+        <v>-144.0052290887203</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-144.7260869049636</v>
+        <v>-144.7912666703517</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-146.2089924046209</v>
+        <v>-146.3220515330718</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-148.6042831320751</v>
+        <v>-148.7767346742077</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-151.9915773972614</v>
+        <v>-152.2006219750057</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-154.3120223853448</v>
+        <v>-154.2838942334456</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-151.8500820782753</v>
+        <v>-151.6403697550541</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-148.6467977594148</v>
+        <v>-148.488684901177</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-146.4592860869219</v>
+        <v>-146.3606285936504</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-145.1774210266508</v>
+        <v>-145.1258033505004</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-144.6367409860258</v>
+        <v>-144.6250670386855</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-144.7651412922689</v>
+        <v>-144.7914882836887</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-145.5737020544634</v>
+        <v>-145.6408185293965</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-147.160299544283</v>
+        <v>-147.2762709533117</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-149.7185068112811</v>
+        <v>-149.8949322032775</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-153.2547624720985</v>
+        <v>-153.4524455759632</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-154.9681926897207</v>
+        <v>-154.8829466153086</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-151.9680023905875</v>
+        <v>-151.7645773467766</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-148.8613942710077</v>
+        <v>-148.7178975731575</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-146.8285968466631</v>
+        <v>-146.7418915347254</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-145.6924979733838</v>
+        <v>-145.6506811909429</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-145.2989784214641</v>
+        <v>-145.2960856615255</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-145.5928160005922</v>
+        <v>-145.628029277136</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-146.6071137401208</v>
+        <v>-146.6845197080246</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-148.4727147736448</v>
+        <v>-148.6021510538046</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-151.4089226591951</v>
+        <v>-151.5995433163012</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-155.0252553726968</v>
+        <v>-155.1721743824374</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-154.9572413201181</v>
+        <v>-154.785958155785</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-151.4296972357363</v>
+        <v>-151.2467450934316</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-148.6539752892179</v>
+        <v>-148.5348637236978</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-146.9465401269931</v>
+        <v>-146.879000925777</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-146.092360018595</v>
+        <v>-146.0664907375387</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.9703351636774</v>
+        <v>-145.9822503542665</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-146.5598267119733</v>
+        <v>-146.610667703579</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-147.9358537925033</v>
+        <v>-148.0321452755396</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-150.2858865299926</v>
+        <v>-150.4398184965612</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-153.7822422413719</v>
+        <v>-153.9832979234854</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-156.4849563310446</v>
+        <v>-156.4706291354929</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-153.8875635200003</v>
+        <v>-153.6852254888846</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-150.4948300455877</v>
+        <v>-150.34729018561</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-148.2525429481499</v>
+        <v>-148.1632764782732</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-146.9914974928544</v>
+        <v>-146.947488647192</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-146.5281705178095</v>
+        <v>-146.5227602705972</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-146.7938865270709</v>
+        <v>-146.8259470607323</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-147.8206766893261</v>
+        <v>-147.8942497569576</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-149.751637876058</v>
+        <v>-149.8769120884585</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-152.8342447022487</v>
+        <v>-153.0208398539072</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-156.5555205713138</v>
+        <v>-156.6806081507593</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-155.9194235625959</v>
+        <v>-155.7356817503473</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-152.2119061648449</v>
+        <v>-152.0423033586413</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-149.4999865395559</v>
+        <v>-149.3933353097425</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-147.8913160818885</v>
+        <v>-147.8335219595576</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.1534173798517</v>
+        <v>-147.1354252111884</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-147.1745585659829</v>
+        <v>-147.1934510468005</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-147.9532455560889</v>
+        <v>-148.0113156906861</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-149.5986972968604</v>
+        <v>-149.7041882911273</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-152.3501247264152</v>
+        <v>-152.5161520510201</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-156.2124917521461</v>
+        <v>-156.3915512942604</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-157.3483482747368</v>
+        <v>-157.2177607539538</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-153.6978174704572</v>
+        <v>-153.5142414289608</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-150.6098094477089</v>
+        <v>-150.4905598480887</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-148.7223645547667</v>
+        <v>-148.6549183848971</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-147.7752043890296</v>
+        <v>-147.7486320196782</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-147.6200546549079</v>
+        <v>-147.6300892821052</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-148.2297981360963</v>
+        <v>-148.2775365711651</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-149.6905342194489</v>
+        <v>-149.7828583799382</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-152.2254658299669</v>
+        <v>-152.3756164365137</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-156.0209398325911</v>
+        <v>-156.2120330974494</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-158.2760197072321</v>
+        <v>-158.2034066809761</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-154.8939664540575</v>
+        <v>-154.7039557898024</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-151.5346541281677</v>
+        <v>-151.4077751803835</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-149.4446423840075</v>
+        <v>-149.3714933419669</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-148.3529035450712</v>
+        <v>-148.3212561459789</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-148.082741094386</v>
+        <v>-148.0874170382709</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-148.5889949665574</v>
+        <v>-148.6303587008255</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-149.9438810114112</v>
+        <v>-150.0279840678359</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-152.3610740883165</v>
+        <v>-152.5008472185266</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-156.0987506817517</v>
+        <v>-156.2896306440597</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-158.9418069352655</v>
+        <v>-158.9081561007737</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-155.791956847863</v>
+        <v>-155.6005114452682</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-152.2578455437813</v>
+        <v>-152.1279440204277</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-150.0431179270128</v>
+        <v>-149.9677535066774</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-148.8686602879475</v>
+        <v>-148.8348331279755</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-148.5382696845393</v>
+        <v>-148.5403218509645</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-148.9962560474132</v>
+        <v>-149.0341847469729</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-150.3089729493395</v>
+        <v>-150.3884507984188</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-152.6894218650885</v>
+        <v>-152.8232282600326</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-156.4311891985618</v>
+        <v>-156.6194775652482</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-159.5231725834836</v>
+        <v>-159.5036336821002</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-156.4166196365457</v>
+        <v>-156.2263084867319</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.788675482775</v>
+        <v>-152.6597413467041</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-150.5223393520469</v>
+        <v>-150.4476942242347</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-149.3209079840138</v>
+        <v>-149.2872451660773</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-148.9776374844125</v>
+        <v>-148.9792088213551</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-149.4334650664443</v>
+        <v>-149.4702128212363</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-150.7559199026422</v>
+        <v>-150.8334960268335</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-153.1659837601461</v>
+        <v>-153.2973522852442</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-156.9790478170839</v>
+        <v>-157.1653332707484</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-160.0839759937477</v>
+        <v>-160.0573636790972</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-156.8074910359463</v>
+        <v>-156.6202446460336</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-153.1553586089658</v>
+        <v>-153.0306718405537</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-150.9004271077696</v>
+        <v>-150.8288161940092</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-149.7186436548644</v>
+        <v>-149.6869364345645</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-149.4012348522469</v>
+        <v>-149.4039163648806</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-149.8920904632064</v>
+        <v>-149.9293074009368</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-151.2659950529942</v>
+        <v>-151.3436435842934</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-153.7598629404818</v>
+        <v>-153.8913926947339</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-157.7024027756717</v>
+        <v>-157.8870166386411</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-160.6093692280213</v>
+        <v>-160.5590716320461</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-157.0119620572304</v>
+        <v>-156.8296976908061</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-153.3974635975963</v>
+        <v>-153.2792646206443</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-151.2029465306857</v>
+        <v>-151.1358839709585</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-150.0762101291183</v>
+        <v>-150.0476108359718</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-149.8138588957551</v>
+        <v>-149.8186739259306</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-150.3678146055904</v>
+        <v>-150.4065625983459</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-151.8251048934484</v>
+        <v>-151.9041299154537</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-154.445540431161</v>
+        <v>-154.5789832635771</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-158.5595591585051</v>
+        <v>-158.7416820866046</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-161.0495486395095</v>
+        <v>-160.9658567291905</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-157.0839267246361</v>
+        <v>-156.9090203372006</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-153.5584095113753</v>
+        <v>-153.4481358417336</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-151.4572880763545</v>
+        <v>-151.3957154271045</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-150.4088575131934</v>
+        <v>-150.3841031809519</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-150.220731745331</v>
+        <v>-150.2283623880635</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-150.8564088015846</v>
+        <v>-150.8974191388216</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-152.4188939212911</v>
+        <v>-152.500237927397</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-155.1965402421961</v>
+        <v>-155.3331945711019</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-159.5026441889333</v>
+        <v>-159.6802751750311</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-161.3660687508969</v>
+        <v>-161.2477905183283</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-157.0830948012641</v>
+        <v>-156.9171900360198</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-153.6806339742417</v>
+        <v>-153.5785842391197</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-151.6893262521641</v>
+        <v>-151.6333397914425</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-150.730266450771</v>
+        <v>-150.7094092256362</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-150.625345503177</v>
+        <v>-150.6358312542283</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-151.3514881336691</v>
+        <v>-151.394824462149</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-153.0299410323238</v>
+        <v>-153.1137402045432</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-155.9813673765573</v>
+        <v>-156.1214988447722</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-160.4754888425051</v>
+        <v>-160.6450398847763</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-161.564138821491</v>
+        <v>-161.4180162079819</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-157.0677988075425</v>
+        <v>-156.9119499166045</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-153.8008389687496</v>
+        <v>-153.7068483356508</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-151.920203281672</v>
+        <v>-151.8696158211135</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-151.049968539204</v>
+        <v>-151.0328365784189</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-151.0270509876586</v>
+        <v>-151.0402268184609</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-151.8419212430722</v>
+        <v>-151.8873958480116</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-153.6344808848735</v>
+        <v>-153.7205135849391</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-156.7589886734042</v>
+        <v>-156.90228790137</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-161.4161495009986</v>
+        <v>-161.5742593063068</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-161.7017333143913</v>
+        <v>-161.5376469095529</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-157.0922716381919</v>
+        <v>-156.9460012484859</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-153.950274764412</v>
+        <v>-153.8633365140805</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-152.1668490373012</v>
+        <v>-152.1208786582402</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-151.3738459749509</v>
+        <v>-151.3597682358559</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-151.4215187421428</v>
+        <v>-151.4367131533683</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-152.3121778842054</v>
+        <v>-152.3590242379019</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-154.2024703582455</v>
+        <v>-154.2897383982176</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-157.4782916879545</v>
+        <v>-157.6234095304482</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-162.2667654342053</v>
+        <v>-162.4123218485738</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-161.8676122023519</v>
+        <v>-161.6946509089684</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-157.2034184962131</v>
+        <v>-157.0653598948819</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-154.154585722337</v>
+        <v>-154.073367354801</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-152.441993632599</v>
+        <v>-152.3996305990193</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-151.7041640965122</v>
+        <v>-151.6922728565629</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-151.8007932577316</v>
+        <v>-151.8171216867306</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-152.7424673734693</v>
+        <v>-152.7896277121784</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-154.6978345553106</v>
+        <v>-154.7848869315343</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-158.0784081706237</v>
+        <v>-158.2233578453603</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-162.9805309583017</v>
+        <v>-163.117800370441</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-162.1605355724777</v>
+        <v>-161.9847715964117</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-157.445630349685</v>
+        <v>-157.3134130898247</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-154.4378819102219</v>
+        <v>-154.3605600657081</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-152.7572806608242</v>
+        <v>-152.7171434746083</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-152.0423071794401</v>
+        <v>-152.0313680053761</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-152.156060502106</v>
+        <v>-152.1722381640352</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-153.1119466964923</v>
+        <v>-153.1578548558766</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-155.0827427715664</v>
+        <v>-155.1673208770436</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-158.4941155780063</v>
+        <v>-158.6356873258216</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-163.5095298033312</v>
+        <v>-163.6476379820954</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-162.6762684954273</v>
+        <v>-162.5013940227118</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-157.8663100151793</v>
+        <v>-157.7370917250712</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-154.8266484759654</v>
+        <v>-154.7513017374949</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-153.1262772762258</v>
+        <v>-153.0869660605156</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-152.3915236276955</v>
+        <v>-152.3803308610726</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-152.4806517059822</v>
+        <v>-152.4954420662617</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-153.4025902895494</v>
+        <v>-153.4457268589258</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-155.323411468033</v>
+        <v>-155.403288289287</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-158.6643919465432</v>
+        <v>-158.7991836290624</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-163.7667174344886</v>
+        <v>-163.9170844378614</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-163.5051715648982</v>
+        <v>-163.3351345627441</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-158.5271262910856</v>
+        <v>-158.3968639407653</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-155.356865536869</v>
+        <v>-155.2808368146219</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-153.5698051850873</v>
+        <v>-153.5293971521257</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-152.7616968483776</v>
+        <v>-152.7485992093595</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-152.7750434365068</v>
+        <v>-152.786785185656</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-153.6054035503079</v>
+        <v>-153.6438010756707</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-155.3994360255371</v>
+        <v>-155.471817668439</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-158.5485782389767</v>
+        <v>-158.6719065781332</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-163.6039521275047</v>
+        <v>-163.7689856363401</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-164.7089431111704</v>
+        <v>-164.5555851376986</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-159.5218844483108</v>
+        <v>-159.3854382887182</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-156.0846792311139</v>
+        <v>-156.0047820656849</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-154.1233236446237</v>
+        <v>-154.0796138546197</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-153.1754794032197</v>
+        <v>-153.1586668772856</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-153.0528625852494</v>
+        <v>-153.0598041137705</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-153.7272930194889</v>
+        <v>-153.7589737132561</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-155.3132244476483</v>
+        <v>-155.3754592191812</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-158.144625887694</v>
+        <v>-158.2518541853236</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-162.8783101213011</v>
+        <v>-163.044941081066</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-166.1460772036182</v>
+        <v>-166.0527961104376</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-161.0038824602257</v>
+        <v>-160.855380501025</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-157.103150996313</v>
+        <v>-157.0156409386427</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-154.8472199943466</v>
+        <v>-154.7979353162652</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-153.6758526221176</v>
+        <v>-153.6536721316313</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-153.3473498040624</v>
+        <v>-153.3480686077158</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-153.7973409820927</v>
+        <v>-153.8208850667598</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-155.0969467698291</v>
+        <v>-155.147364127778</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-157.50147199377</v>
+        <v>-157.5897582343701</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-161.6082418852394</v>
+        <v>-161.75609862438</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-166.8797641875863</v>
+        <v>-166.9333413923127</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-163.2249968973233</v>
+        <v>-163.0587527146476</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-158.576940580277</v>
+        <v>-158.4757038374876</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-155.8460934094</v>
+        <v>-155.7877522978361</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-154.3386672658718</v>
+        <v>-154.3087825158576</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-153.7205713092947</v>
+        <v>-153.7132595347918</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-153.8738644064274</v>
+        <v>-153.8877060857108</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-154.8169457011855</v>
+        <v>-154.8540915981037</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-156.7176408909167</v>
+        <v>-156.7853509830601</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-160.0129339649078</v>
+        <v>-160.1285504363705</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-165.4252701379952</v>
+        <v>-165.5871926164574</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-166.3806496729849</v>
+        <v>-166.2229427309682</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-160.8140228768665</v>
+        <v>-160.6890377360808</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-157.3041174543116</v>
+        <v>-157.2316068186313</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-155.2915459814321</v>
+        <v>-155.2511178293492</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-154.274387548265</v>
+        <v>-154.2572698605079</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-154.0499873936922</v>
+        <v>-154.0529995643214</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-154.5727881860701</v>
+        <v>-154.5962139278545</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-155.9245292972979</v>
+        <v>-155.9723459493486</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-158.3715754379105</v>
+        <v>-158.4543568209136</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-162.5545905621827</v>
+        <v>-162.6950981847384</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-168.2195406587268</v>
+        <v>-168.282194876009</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-164.4094141854386</v>
+        <v>-164.2477929209356</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-159.5758386544903</v>
+        <v>-159.4796492594751</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-156.7583858606192</v>
+        <v>-156.7027268077638</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-155.1748600270465</v>
+        <v>-155.1453777030825</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-154.4670536484626</v>
+        <v>-154.4578916681824</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-154.5016640795749</v>
+        <v>-154.5110938837778</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-155.2762170891355</v>
+        <v>-155.3055461975904</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-156.9181973426483</v>
+        <v>-156.9726949236489</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-159.7779707177702</v>
+        <v>-159.8709118217911</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-164.660249711466</v>
+        <v>-164.8155268354662</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-169.0889170537383</v>
+        <v>-169.0218875114351</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-163.4360104378146</v>
+        <v>-163.2956671557738</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-159.1741677657423</v>
+        <v>-159.093240523102</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-156.7075028638814</v>
+        <v>-156.6606998388502</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-155.3434421207495</v>
+        <v>-155.3195268605621</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-154.7922285452023</v>
+        <v>-154.7866899263219</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-154.9525003693943</v>
+        <v>-154.9642457739774</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-155.8413891611231</v>
+        <v>-155.872086202595</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-157.606562055294</v>
+        <v>-157.6618302280851</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-160.6367914974301</v>
+        <v>-160.7306804588622</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-165.8230399284385</v>
+        <v>-165.9794652147002</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-169.6288441788731</v>
+        <v>-169.5254379753899</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-163.5672927370239</v>
+        <v>-163.4372623077226</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-159.4444589007678</v>
+        <v>-159.369988842666</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-157.0559682576646</v>
+        <v>-157.0127949485187</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-155.7292052516723</v>
+        <v>-155.7071312431993</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-155.1880131885612</v>
+        <v>-155.1829229058931</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-155.3346666103551</v>
+        <v>-155.3455311352312</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-156.1830697071518</v>
+        <v>-156.2113366565327</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-157.8684604219454</v>
+        <v>-157.9190630812738</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-160.7476414314742</v>
+        <v>-160.8329843523451</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-165.6865434776696</v>
+        <v>-165.8331041958043</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-170.8356367372203</v>
+        <v>-170.786553956394</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-164.9012020101563</v>
+        <v>-164.7657533309325</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-160.4239528683314</v>
+        <v>-160.3470477133618</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-157.8345543919491</v>
+        <v>-157.7895782541783</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-156.357256161238</v>
+        <v>-156.3330129789866</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-155.6743325210059</v>
+        <v>-155.6662425290497</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-155.664140156212</v>
+        <v>-155.6707106519407</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-156.3158212694199</v>
+        <v>-156.3377640856529</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-157.7230758596589</v>
+        <v>-157.763806577661</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-160.1493318457863</v>
+        <v>-160.2175668163283</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-164.2544925237248</v>
+        <v>-164.3720341347982</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-170.8794117512873</v>
+        <v>-171.00231124572</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-167.9875144983253</v>
+        <v>-167.8306786030036</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-162.4242904360833</v>
+        <v>-162.3341859030179</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-159.2412277027213</v>
+        <v>-159.1887180374207</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-157.377177105984</v>
+        <v>-157.3470366562321</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-156.3800607838192</v>
+        <v>-156.366098750009</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-156.0662017030705</v>
+        <v>-156.0659571036421</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-156.3790631462541</v>
+        <v>-156.3922068421841</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-157.3540760814792</v>
+        <v>-157.382268513306</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-159.1412952076931</v>
+        <v>-159.1893030979648</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-162.118239762457</v>
+        <v>-162.1979851776862</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-167.2395642046399</v>
+        <v>-167.3796619032984</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-172.844858360723</v>
+        <v>-172.7962218189281</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-166.3936361539037</v>
+        <v>-166.2687134874383</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-161.8029747880569</v>
+        <v>-161.733292440904</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-159.150141538725</v>
+        <v>-159.1091453634336</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-157.5968806023989</v>
+        <v>-157.5740817693149</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-156.8089360594944</v>
+        <v>-156.7999653182011</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-156.6503559007208</v>
+        <v>-156.6535501810494</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-157.0878845689202</v>
+        <v>-157.1033011110264</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-158.17169614088</v>
+        <v>-158.2011860160545</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-160.0665944415842</v>
+        <v>-160.1150380407289</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-163.1783157117142</v>
+        <v>-163.2579720260591</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-168.5535469078872</v>
+        <v>-168.6948537637485</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-173.949705380461</v>
+        <v>-173.8774447557131</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-167.0565724351646</v>
+        <v>-166.9413864026878</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-162.5485585611914</v>
+        <v>-162.4849885963894</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-159.9399643257084</v>
+        <v>-159.9027933888572</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-158.4002480834179</v>
+        <v>-158.379824097624</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-157.6014998504404</v>
+        <v>-157.5937747942147</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-157.4073055010937</v>
+        <v>-157.410670033769</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-157.778053781072</v>
+        <v>-157.792396686131</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-158.7485445846329</v>
+        <v>-158.7752429620696</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-160.4481775636438</v>
+        <v>-160.4909167539321</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-163.1911190579711</v>
+        <v>-163.258914020074</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-167.783180821134</v>
+        <v>-167.9008493544399</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-175.2648651779524</v>
+        <v>-175.3801257367606</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-170.5632833904401</v>
+        <v>-170.4377166792146</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-165.0961742981343</v>
+        <v>-165.0304705852053</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-162.0565858717325</v>
+        <v>-162.0213608222793</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-160.2820010136727</v>
+        <v>-160.2656341000198</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-159.335801332701</v>
+        <v>-159.3341067267978</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-159.0458924243396</v>
+        <v>-159.0582108800881</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-159.3701146783189</v>
+        <v>-159.3992034535263</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-160.390890511847</v>
+        <v>-160.4483201048182</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-162.6233513088686</v>
+        <v>-162.813165022694</v>
       </c>
     </row>
     <row r="602">

--- a/RT_radpat_60deg.xlsx
+++ b/RT_radpat_60deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-148.6972580489389</v>
+        <v>-148.6973526293507</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-149.0365113089204</v>
+        <v>-149.0366145827721</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-149.4205630025198</v>
+        <v>-149.4206759698696</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-149.8534076600163</v>
+        <v>-149.8535319494966</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-150.3390187502685</v>
+        <v>-150.3391539830945</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-150.8808789644639</v>
+        <v>-150.8810245132675</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-151.4810681831903</v>
+        <v>-151.4812237223451</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-152.1384988466173</v>
+        <v>-152.1386657937498</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-152.8456804291533</v>
+        <v>-152.8458540177449</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-153.5830741608693</v>
+        <v>-153.5832463268515</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-154.3103871645235</v>
+        <v>-154.3105456307643</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-154.9564985287129</v>
+        <v>-154.9566238493065</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-155.4168189770575</v>
+        <v>-155.4168892204041</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-155.5760962755883</v>
+        <v>-155.576087827767</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-155.3634655600693</v>
+        <v>-155.3633770042049</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-154.7997523564956</v>
+        <v>-154.7996016267342</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-153.9831507328026</v>
+        <v>-153.9829622136867</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-153.0308374282039</v>
+        <v>-153.0306377411815</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-152.0356336340305</v>
+        <v>-152.0354357784214</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-151.0560897926864</v>
+        <v>-151.0559029748382</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-150.1239691614201</v>
+        <v>-150.1237973054562</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-149.2542995748726</v>
+        <v>-149.2541427518483</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-148.4528062167697</v>
+        <v>-148.4526654325372</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-147.7204506464722</v>
+        <v>-147.7203245330015</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-147.0559699730379</v>
+        <v>-147.0558586111211</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-146.4572477051429</v>
+        <v>-146.4571499196885</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-145.922019650685</v>
+        <v>-145.9219339521432</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-145.4482349573757</v>
+        <v>-145.4481609356463</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-145.0342356846377</v>
+        <v>-145.0341728946738</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-144.6788418390997</v>
+        <v>-144.67879037079</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-144.3813928999972</v>
+        <v>-144.3813515680793</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-144.1417728564064</v>
+        <v>-144.1417411975583</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-143.9604330714132</v>
+        <v>-143.9604121546905</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-143.8384267990342</v>
+        <v>-143.8384152986396</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-143.7774522313153</v>
+        <v>-143.7774516216186</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-143.7799235436156</v>
+        <v>-143.7799327927769</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-143.8490606722768</v>
+        <v>-143.8490802023562</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-143.9890148749825</v>
+        <v>-143.9890451817909</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-144.2050323598793</v>
+        <v>-144.2050746382539</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-144.503660356969</v>
+        <v>-144.5037152638588</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-144.8929871771008</v>
+        <v>-144.89305586096</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-145.3828953316919</v>
+        <v>-145.3829787861708</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-145.9852250538335</v>
+        <v>-145.9853249679297</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-146.7135652036071</v>
+        <v>-146.7136832871228</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-147.5819073236042</v>
+        <v>-147.5820446924007</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-148.6000769555999</v>
+        <v>-148.6002341409772</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-149.7605777734678</v>
+        <v>-149.7607524424878</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-151.004571616512</v>
+        <v>-151.00474743029</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-152.1511428762498</v>
+        <v>-152.1512829578096</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-152.8318554305847</v>
+        <v>-152.8319041098695</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-152.6603707666616</v>
+        <v>-152.6602962421451</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-151.6620854672306</v>
+        <v>-151.6619255117204</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-150.2415500183224</v>
+        <v>-150.2413630728043</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-148.7528222063995</v>
+        <v>-148.7526434341143</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-147.3636176864225</v>
+        <v>-147.3634567946083</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-146.1277249100686</v>
+        <v>-146.1275858074847</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-145.0522665866771</v>
+        <v>-145.052148795875</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-144.1290729343639</v>
+        <v>-144.1289744875461</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-143.3467096312672</v>
+        <v>-143.3466280066386</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-142.6946497616636</v>
+        <v>-142.6945841650544</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-142.1645407146881</v>
+        <v>-142.1644904193383</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-141.7504568446921</v>
+        <v>-141.7504200178743</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-141.448846241224</v>
+        <v>-141.4488231572889</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-141.2584524594953</v>
+        <v>-141.2584425732765</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-141.1802971907453</v>
+        <v>-141.1803003445937</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-141.2177822187622</v>
+        <v>-141.2177990806486</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-141.376934932167</v>
+        <v>-141.3769657876962</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-141.6668274401535</v>
+        <v>-141.6668739114909</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-142.1001920468908</v>
+        <v>-142.1002546391469</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-142.6941980043297</v>
+        <v>-142.6942791385447</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-143.471163211429</v>
+        <v>-143.4712650541625</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-144.4582019839297</v>
+        <v>-144.4583277464872</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-145.6821774940711</v>
+        <v>-145.6823284199693</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-147.1471778046484</v>
+        <v>-147.1473504585769</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-148.7544052191006</v>
+        <v>-148.7545765806588</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-150.0956258424233</v>
+        <v>-150.0957280607779</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-150.3565865439864</v>
+        <v>-150.3565360619069</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-149.2126177373974</v>
+        <v>-149.2124474291922</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-147.3810847183138</v>
+        <v>-147.3808901350436</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-145.5289506135051</v>
+        <v>-145.5287731944293</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-143.8934939920336</v>
+        <v>-143.8933443287163</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-142.5130574767302</v>
+        <v>-142.5129346303999</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-141.3711179911153</v>
+        <v>-141.371019081125</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-140.4426632736171</v>
+        <v>-140.4425848458042</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-139.7062369503772</v>
+        <v>-139.7061774621628</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-139.1462507955586</v>
+        <v>-139.1462081054022</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-138.7528602759349</v>
+        <v>-138.7528335782975</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-138.5214866011986</v>
+        <v>-138.5214755768361</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-138.452549106449</v>
+        <v>-138.4525537076906</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-138.5515845007414</v>
+        <v>-138.5516052831532</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-138.829841585497</v>
+        <v>-138.8298795282038</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-139.3054412138028</v>
+        <v>-139.3054986229232</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-140.005126844988</v>
+        <v>-140.0052057252003</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-140.9661826086636</v>
+        <v>-140.9662863679613</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-142.2358142999166</v>
+        <v>-142.2359468823785</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-143.8547658613661</v>
+        <v>-143.8549301030156</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-145.7664935663705</v>
+        <v>-145.7666709087863</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-147.4704720649577</v>
+        <v>-147.4705830578589</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-147.662732699286</v>
+        <v>-147.6626590336347</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-145.9536149718566</v>
+        <v>-145.9534288226452</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-143.6512098043722</v>
+        <v>-143.651021365775</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-141.5521379488977</v>
+        <v>-141.5519799249217</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-139.8116952474381</v>
+        <v>-139.8115679243064</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-138.4082565761829</v>
+        <v>-138.4081564853673</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-137.296734518386</v>
+        <v>-137.2966573438209</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-136.4400551459974</v>
+        <v>-136.4399985104148</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-135.81296746605</v>
+        <v>-135.8129295054048</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-135.4008552138712</v>
+        <v>-135.4008342736789</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-135.1984098878192</v>
+        <v>-135.1984058641585</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-135.2091548929198</v>
+        <v>-135.2091686931062</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-135.4460723157256</v>
+        <v>-135.4461047713501</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-135.933562717957</v>
+        <v>-135.9336160242797</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-136.7110637633539</v>
+        <v>-136.711141444213</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-137.8381458487829</v>
+        <v>-137.8382529164915</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-139.3961838431542</v>
+        <v>-139.3963268935538</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-141.4507638300985</v>
+        <v>-141.4509433732569</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-143.763540520291</v>
+        <v>-143.7637059123915</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-144.7857008178502</v>
+        <v>-144.7856727985733</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-142.9444258910626</v>
+        <v>-142.9442278118916</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-140.0877244492177</v>
+        <v>-140.0875249339394</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-137.5638685105661</v>
+        <v>-137.5637069337078</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-135.5407612984969</v>
+        <v>-135.5406349982847</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-133.9475798192749</v>
+        <v>-133.9474826598367</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-132.7083966210953</v>
+        <v>-132.7083233508783</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-131.7705224423872</v>
+        <v>-131.7704699622256</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-131.1021572678127</v>
+        <v>-131.1021233947317</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-130.6881314163919</v>
+        <v>-130.6881155110476</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-130.5277255408996</v>
+        <v>-130.5277278090998</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-130.6350145329982</v>
+        <v>-130.6350364302236</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-131.0422477566331</v>
+        <v>-131.0422918879576</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-131.8077286308726</v>
+        <v>-131.8078000567559</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-133.0310962287505</v>
+        <v>-133.0312029949208</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-134.8768493576901</v>
+        <v>-134.8770052553345</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-137.549056691687</v>
+        <v>-137.5492702313144</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-140.4876754968193</v>
+        <v>-140.4878133040394</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-139.5655212882011</v>
+        <v>-139.5652933593228</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-135.4601003710384</v>
+        <v>-135.4598395498641</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-131.8537364190393</v>
+        <v>-131.8535332797619</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-129.0381280959764</v>
+        <v>-129.0379703631774</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-126.7974488564434</v>
+        <v>-126.7973231816378</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-124.9709826339691</v>
+        <v>-124.9708806268249</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-123.458121850322</v>
+        <v>-123.4580380226042</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-122.1948753068902</v>
+        <v>-122.19480632519</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-121.1390436592891</v>
+        <v>-121.1389870157124</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-120.2619147075916</v>
+        <v>-120.2618688930058</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-119.5435487732028</v>
+        <v>-119.5435126185809</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-118.9700095143808</v>
+        <v>-118.969982085631</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-118.5316884433847</v>
+        <v>-118.5316691918732</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-118.2222748784193</v>
+        <v>-118.2222634114165</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-118.0381304356354</v>
+        <v>-118.0381264651406</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-117.977937354857</v>
+        <v>-117.9779407642779</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-118.0425533316201</v>
+        <v>-118.0425641324202</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-118.2350459513109</v>
+        <v>-118.2350642893728</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-118.5609127641577</v>
+        <v>-118.5609389150686</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-119.0285270188282</v>
+        <v>-119.0285614397867</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-119.6498976680712</v>
+        <v>-119.6499410902352</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-120.4419096799436</v>
+        <v>-120.4419630049953</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-121.4283556174198</v>
+        <v>-121.4284204253742</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-122.6433543178459</v>
+        <v>-122.6434325825359</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-124.1373404484139</v>
+        <v>-124.1374354483443</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-125.9880748992</v>
+        <v>-125.9881917936849</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-128.3216266367791</v>
+        <v>-128.3217740826521</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-131.3495810136686</v>
+        <v>-131.3497729132092</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-135.3684620700735</v>
+        <v>-135.3687114034234</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-139.6668333629561</v>
+        <v>-139.6669905778314</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-138.8651271453074</v>
+        <v>-138.8649521211271</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-135.3801397655162</v>
+        <v>-135.3799823168525</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-132.8517261717316</v>
+        <v>-132.8516248617512</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-131.2313420506015</v>
+        <v>-131.2312803923782</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-130.2578831347696</v>
+        <v>-130.2578504068748</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-129.7785453851704</v>
+        <v>-129.7785357953326</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-129.7139961161492</v>
+        <v>-129.7140064351229</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-130.0306168631895</v>
+        <v>-130.0306463067098</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-130.7286551345846</v>
+        <v>-130.7287037906469</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-131.8409591254678</v>
+        <v>-131.8410296552507</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-133.4406422578105</v>
+        <v>-133.4407393643618</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-135.6560846554494</v>
+        <v>-135.6562157653628</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-138.656591283437</v>
+        <v>-138.6567626916639</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-142.1986399846827</v>
+        <v>-142.1988014780987</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-143.3133603456847</v>
+        <v>-143.3132974353139</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-140.6074307721867</v>
+        <v>-140.6072865653886</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-137.8434474472786</v>
+        <v>-137.8433394579905</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-135.9005447377606</v>
+        <v>-135.9004738596532</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-134.6484906333152</v>
+        <v>-134.6484488195246</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-133.9427804118737</v>
+        <v>-133.9427619138314</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-133.6991659468253</v>
+        <v>-133.6991678180547</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-133.8803795150449</v>
+        <v>-133.8804003670767</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-134.4863390913744</v>
+        <v>-134.4863799158865</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-135.5535484078934</v>
+        <v>-135.5536111394584</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-137.163071864331</v>
+        <v>-137.163161261759</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-139.4493426243082</v>
+        <v>-139.4494659510204</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-142.5170948251285</v>
+        <v>-142.5172487865333</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-145.515604945894</v>
+        <v>-145.5156908622276</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-145.0000752051628</v>
+        <v>-144.9999698259722</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-142.0741261277538</v>
+        <v>-142.0740043241019</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-139.6041551038867</v>
+        <v>-139.604068190274</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-137.9160426945925</v>
+        <v>-137.915987862265</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-136.8714362075067</v>
+        <v>-136.8714055965831</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-136.3575784507838</v>
+        <v>-136.3575687016071</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-136.3157165693086</v>
+        <v>-136.3157261515279</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-136.7311949043124</v>
+        <v>-136.7312232060563</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-137.6297964941815</v>
+        <v>-137.6298457002501</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-139.0833787736174</v>
+        <v>-139.0834522241288</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-141.2184581770919</v>
+        <v>-141.2185613945583</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-144.1507446462849</v>
+        <v>-144.1508770202002</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-147.1958466884906</v>
+        <v>-147.1959304823723</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-147.0080465232536</v>
+        <v>-147.0079546281616</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-144.1079808255053</v>
+        <v>-144.1078676103122</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-141.5668101894541</v>
+        <v>-141.5667297829279</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-139.8272989221384</v>
+        <v>-139.8272477695184</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-138.7606267883245</v>
+        <v>-138.7605998184864</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-138.2534408209372</v>
+        <v>-138.2534342429142</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-138.2486336100062</v>
+        <v>-138.2486463469223</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-138.7371950979533</v>
+        <v>-138.7372264867306</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-139.7561862513742</v>
+        <v>-139.7562394039625</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-141.3963952897976</v>
+        <v>-141.3964744166757</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-143.8023546531146</v>
+        <v>-143.8024654545588</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-146.9730541495113</v>
+        <v>-146.9731801951398</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-149.1936595318693</v>
+        <v>-149.1936647371429</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-147.3553113902973</v>
+        <v>-147.3551939019102</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-144.3887361729513</v>
+        <v>-144.3886336050244</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-142.172579947647</v>
+        <v>-142.1725101004976</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-140.7395636079305</v>
+        <v>-140.7395197082368</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-139.9485497815092</v>
+        <v>-139.9485269550906</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-139.7121127191954</v>
+        <v>-139.7121089587614</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-139.9999263696626</v>
+        <v>-139.9999401278418</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-140.8329021826869</v>
+        <v>-140.8329354429609</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-142.2880004508746</v>
+        <v>-142.2880558815109</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-144.5051661183012</v>
+        <v>-144.5052479102508</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-147.5741594224876</v>
+        <v>-147.5742596822662</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-150.3303318405665</v>
+        <v>-150.330353544538</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-149.1308627644847</v>
+        <v>-149.1307525062305</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-146.0581053999188</v>
+        <v>-146.0580057335252</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-143.6681175446484</v>
+        <v>-143.6680487319547</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-142.1153791782758</v>
+        <v>-142.1153352958148</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-141.2506139274367</v>
+        <v>-141.2505911247049</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-140.9758505455675</v>
+        <v>-140.9758458788975</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-141.2565397712418</v>
+        <v>-141.256551713107</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-142.1152625850448</v>
+        <v>-142.1152927058083</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-143.6370577397973</v>
+        <v>-143.6371106211639</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-145.9745168817716</v>
+        <v>-145.974592871206</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-149.1767588270308</v>
+        <v>-149.1768468767367</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-151.5757396867631</v>
+        <v>-151.5757234686622</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-149.6755786030411</v>
+        <v>-149.6754645430725</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-146.587498017012</v>
+        <v>-146.5874063574589</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-144.3342569237251</v>
+        <v>-144.334194446359</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-142.9230371414951</v>
+        <v>-142.9229985121565</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-142.2013779443148</v>
+        <v>-142.2013581746579</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-142.0839610857878</v>
+        <v>-142.083957365239</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-142.5525592448256</v>
+        <v>-142.5525716614102</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-143.6525231837954</v>
+        <v>-143.6525532238254</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-145.5022377582011</v>
+        <v>-145.5022870886107</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-148.2721941064833</v>
+        <v>-148.2722616348763</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-151.6242672245791</v>
+        <v>-151.6243127994602</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-152.1271780048969</v>
+        <v>-152.1270939281101</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-149.0494861865454</v>
+        <v>-149.0493899794341</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-146.2708571791358</v>
+        <v>-146.2707911230403</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-144.4369084545794</v>
+        <v>-144.4368672456492</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-143.3916794260407</v>
+        <v>-143.3916587266443</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-143.0089923390286</v>
+        <v>-143.0089878209731</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-143.2401736782648</v>
+        <v>-143.2401861449234</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-144.1061405734415</v>
+        <v>-144.1061700966006</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-145.7028419468973</v>
+        <v>-145.7028928750735</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-148.2052894787332</v>
+        <v>-148.2053620487236</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-151.6004468497449</v>
+        <v>-151.6005176367137</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-153.4284659440003</v>
+        <v>-153.4283958679092</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-150.753153621044</v>
+        <v>-150.7530233182115</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-147.6881393375073</v>
+        <v>-147.6880416388921</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-145.6063587741793</v>
+        <v>-145.6062913351674</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-144.3851095851898</v>
+        <v>-144.3850644519779</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-143.8733905491161</v>
+        <v>-143.873363495761</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-144.0052290887203</v>
+        <v>-144.0052176821973</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-144.7912666703517</v>
+        <v>-144.7912713462265</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-146.3220515330718</v>
+        <v>-146.3220735570891</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-148.7767346742077</v>
+        <v>-148.776777688197</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-152.2006219750057</v>
+        <v>-152.2006654708412</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-154.2838942334456</v>
+        <v>-154.2838289427858</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-151.6403697550541</v>
+        <v>-151.6402520339665</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-148.488684901177</v>
+        <v>-148.4885960077081</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-146.3606285936504</v>
+        <v>-146.36056467001</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-145.1258033505004</v>
+        <v>-145.1257578621227</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-144.6250670386855</v>
+        <v>-144.6250351404145</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-144.7914882836887</v>
+        <v>-144.7914693499113</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-145.6408185293965</v>
+        <v>-145.6408120330426</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-147.2762709533117</v>
+        <v>-147.2762755105621</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-149.8949322032775</v>
+        <v>-149.8949528836632</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-153.4524455759632</v>
+        <v>-153.452475630882</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-154.8829466153086</v>
+        <v>-154.8829173076078</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-151.7645773467766</v>
+        <v>-151.7645267582198</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-148.7178975731575</v>
+        <v>-148.7178604529352</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-146.7418915347254</v>
+        <v>-146.7418672036996</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-145.6506811909429</v>
+        <v>-145.650667952566</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-145.2960856615255</v>
+        <v>-145.2960827059475</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-145.628029277136</v>
+        <v>-145.6280354744438</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-146.6845197080246</v>
+        <v>-146.6845389776739</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-148.6021510538046</v>
+        <v>-148.6021856914969</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-151.5995433163012</v>
+        <v>-151.5995907814485</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-155.1721743824374</v>
+        <v>-155.172184722485</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-154.785958155785</v>
+        <v>-154.7858561501244</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-151.2467450934316</v>
+        <v>-151.2466541374095</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-148.5348637236978</v>
+        <v>-148.5348003646361</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-146.879000925777</v>
+        <v>-146.8789548007302</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-146.0664907375387</v>
+        <v>-146.0664589279181</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.9822503542665</v>
+        <v>-145.9822294335119</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-146.610667703579</v>
+        <v>-146.6106551192393</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-148.0321452755396</v>
+        <v>-148.0321435351071</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-150.4398184965612</v>
+        <v>-150.4398207855217</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-153.9832979234854</v>
+        <v>-153.98327422391</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-156.4706291354929</v>
+        <v>-156.4704777861344</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-153.6852254888846</v>
+        <v>-153.6850775883651</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-150.34729018561</v>
+        <v>-150.3471921988889</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-148.1632764782732</v>
+        <v>-148.1632086155195</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-146.947488647192</v>
+        <v>-146.9474372603386</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-146.5227602705972</v>
+        <v>-146.5227226190561</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-146.8259470607323</v>
+        <v>-146.8259219183583</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-147.8942497569576</v>
+        <v>-147.8942326321292</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-149.8769120884585</v>
+        <v>-149.8769100982131</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-153.0208398539072</v>
+        <v>-153.0208508342803</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-156.6806081507593</v>
+        <v>-156.6806146613397</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-155.7356817503473</v>
+        <v>-155.735633611246</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-152.0423033586413</v>
+        <v>-152.0422574556377</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-149.3933353097425</v>
+        <v>-149.3932975666754</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-147.8335219595576</v>
+        <v>-147.8334927625857</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.1354252111884</v>
+        <v>-147.1354026041442</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-147.1934510468005</v>
+        <v>-147.1934363493597</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-148.0113156906861</v>
+        <v>-148.011309143772</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-149.7041882911273</v>
+        <v>-149.7041896753356</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-152.5161520510201</v>
+        <v>-152.5161598016887</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-156.3915512942604</v>
+        <v>-156.3915425114577</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-157.2177607539538</v>
+        <v>-157.2176532486786</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-153.5142414289608</v>
+        <v>-153.514142790904</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-150.4905598480887</v>
+        <v>-150.4904888751313</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-148.6549183848971</v>
+        <v>-148.6548638365749</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-147.7486320196782</v>
+        <v>-147.7485875387773</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-147.6300892821052</v>
+        <v>-147.6300528671412</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-148.2775365711651</v>
+        <v>-148.2775091840138</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-149.7828583799382</v>
+        <v>-149.7828373002663</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-152.3756164365137</v>
+        <v>-152.3756008731622</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-156.2120330974494</v>
+        <v>-156.2119865598116</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-158.2034066809761</v>
+        <v>-158.2032420044015</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-154.7039557898024</v>
+        <v>-154.7038108493491</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-151.4077751803835</v>
+        <v>-151.407668966006</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-149.3714933419669</v>
+        <v>-149.3714096994285</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-148.3212561459789</v>
+        <v>-148.3211830540432</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-148.0874170382709</v>
+        <v>-148.0873511804107</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-148.6303587008255</v>
+        <v>-148.6302952015024</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-150.0279840678359</v>
+        <v>-150.0279218955523</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-152.5008472185266</v>
+        <v>-152.5007728661533</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-156.2896306440597</v>
+        <v>-156.2895070879312</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-158.9081561007737</v>
+        <v>-158.9079232990503</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-155.6005114452682</v>
+        <v>-155.6003516994154</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-152.1279440204277</v>
+        <v>-152.1278323841761</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-149.9677535066774</v>
+        <v>-149.9676616375994</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-148.8348331279755</v>
+        <v>-148.8347503478696</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-148.5403218509645</v>
+        <v>-148.5402416302953</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-149.0341847469729</v>
+        <v>-149.0341046268219</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-150.3884507984188</v>
+        <v>-150.3883685889434</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-152.8232282600326</v>
+        <v>-152.8231326017916</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-156.6194775652482</v>
+        <v>-156.6193612725221</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-159.5036336821002</v>
+        <v>-159.5035055654203</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-156.2263084867319</v>
+        <v>-156.226241075903</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.6597413467041</v>
+        <v>-152.6596903271188</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-150.4476942242347</v>
+        <v>-150.4476411329633</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-149.2872451660773</v>
+        <v>-149.2871912244046</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-148.9792088213551</v>
+        <v>-148.9791489076658</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-149.4702128212363</v>
+        <v>-149.470147069876</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-150.8334960268335</v>
+        <v>-150.8334185546814</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-153.2973522852442</v>
+        <v>-153.2972469365392</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-157.1653332707484</v>
+        <v>-157.1651346288254</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-160.0573636790972</v>
+        <v>-160.0570412373141</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-156.6202446460336</v>
+        <v>-156.6200764340858</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-153.0306718405537</v>
+        <v>-153.0305707060519</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-150.8288161940092</v>
+        <v>-150.8287319721192</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-149.6869364345645</v>
+        <v>-149.6868595631952</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-149.4039163648806</v>
+        <v>-149.4038397023585</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-149.9293074009368</v>
+        <v>-149.9292285368919</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-151.3436435842934</v>
+        <v>-151.3435568807565</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-153.8913926947339</v>
+        <v>-153.8912848511765</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-157.8870166386411</v>
+        <v>-157.8868539214052</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-160.5590716320461</v>
+        <v>-160.5588491176369</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-156.8296976908061</v>
+        <v>-156.8295832205477</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-153.2792646206443</v>
+        <v>-153.2791747193647</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-151.1358839709585</v>
+        <v>-151.1358013249036</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-150.0476108359718</v>
+        <v>-150.0475237370139</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-149.8186739259306</v>
+        <v>-149.8185814400782</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-150.4065625983459</v>
+        <v>-150.4064599835063</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-151.9041299154537</v>
+        <v>-151.9040093988366</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-154.5789832635771</v>
+        <v>-154.5788231886761</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-158.7416820866046</v>
+        <v>-158.7414316350665</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-160.9658567291905</v>
+        <v>-160.965613207664</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-156.9090203372006</v>
+        <v>-156.9089351711185</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-153.4481358417336</v>
+        <v>-153.4480751022196</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-151.3957154271045</v>
+        <v>-151.3956537380633</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-150.3841031809519</v>
+        <v>-150.3840338118664</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-150.2283623880635</v>
+        <v>-150.2282829647832</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-150.8974191388216</v>
+        <v>-150.8973272243147</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-152.500237927397</v>
+        <v>-152.5001234210804</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-155.3331945711019</v>
+        <v>-155.333032834368</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-159.6802751750311</v>
+        <v>-159.6799759051096</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-161.2477905183283</v>
+        <v>-161.247481770397</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-156.9171900360198</v>
+        <v>-156.9170654644937</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-153.5785842391197</v>
+        <v>-153.5785075331639</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-151.6333397914425</v>
+        <v>-151.6332697893457</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-150.7094092256362</v>
+        <v>-150.7093321194555</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-150.6358312542283</v>
+        <v>-150.6357469995829</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-151.394824462149</v>
+        <v>-151.3947300648174</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-153.1137402045432</v>
+        <v>-153.113622770559</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-156.1214988447722</v>
+        <v>-156.1213113269966</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-160.6450398847763</v>
+        <v>-160.6446565301552</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-161.4180162079819</v>
+        <v>-161.4175945268739</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-156.9119499166045</v>
+        <v>-156.9117655905373</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-153.7068483356508</v>
+        <v>-153.7067187403645</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-151.8696158211135</v>
+        <v>-151.8695058577011</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-151.0328365784189</v>
+        <v>-151.0327291641474</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-151.0402268184609</v>
+        <v>-151.0401139994967</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-151.8873958480116</v>
+        <v>-151.8872714826562</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-153.7205135849391</v>
+        <v>-153.7203633079292</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-156.90228790137</v>
+        <v>-156.9020590063143</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-161.5742593063068</v>
+        <v>-161.5737006005494</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-161.5376469095529</v>
+        <v>-161.5370080488395</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-156.9460012484859</v>
+        <v>-156.9456755903308</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-153.8633365140805</v>
+        <v>-153.8631032635767</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-152.1208786582402</v>
+        <v>-152.1206697935514</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-151.3597682358559</v>
+        <v>-151.3595636509535</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-151.4367131533683</v>
+        <v>-151.4364968762615</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-152.3590242379019</v>
+        <v>-152.3587836220135</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-154.2897383982176</v>
+        <v>-154.2894520565334</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-157.6234095304482</v>
+        <v>-157.6230005462296</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-162.4123218485738</v>
+        <v>-162.4116561117137</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-161.6946509089684</v>
+        <v>-161.6943501963603</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-157.0653598948819</v>
+        <v>-157.0652439993983</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-154.073367354801</v>
+        <v>-154.0732606805988</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-152.3996305990193</v>
+        <v>-152.399506544984</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-151.6922728565629</v>
+        <v>-151.6921263237625</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-151.8171216867306</v>
+        <v>-151.8169434914313</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-152.7896277121784</v>
+        <v>-152.7894098031691</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-154.7848869315343</v>
+        <v>-154.7845869885961</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-158.2233578453603</v>
+        <v>-158.2228937133128</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-163.117800370441</v>
+        <v>-163.116969536199</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-161.9847715964117</v>
+        <v>-161.9844683628449</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-157.3134130898247</v>
+        <v>-157.3133652098076</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-154.3605600657081</v>
+        <v>-154.3605241331585</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-152.7171434746083</v>
+        <v>-152.7170921946461</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-152.0313680053761</v>
+        <v>-152.031302064333</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-152.1722381640352</v>
+        <v>-152.1721546481972</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-153.1578548558766</v>
+        <v>-153.1577523968533</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-155.1673208770436</v>
+        <v>-155.1671756237791</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-158.6356873258216</v>
+        <v>-158.6354428893941</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-163.6476379820954</v>
+        <v>-163.6469884732683</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-162.5013940227118</v>
+        <v>-162.500836484713</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-157.7370917250712</v>
+        <v>-157.7368171086798</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-154.7513017374949</v>
+        <v>-154.7510962768437</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-153.0869660605156</v>
+        <v>-153.0867794088269</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-152.3803308610726</v>
+        <v>-152.3801407879753</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-152.4954420662617</v>
+        <v>-152.4952388368311</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-153.4457268589258</v>
+        <v>-153.4454984040763</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-155.403288289287</v>
+        <v>-155.4030040729637</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-158.7991836290624</v>
+        <v>-158.7987581402075</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-163.9170844378614</v>
+        <v>-163.9161502095517</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-163.3351345627441</v>
+        <v>-163.3344559484104</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-158.3968639407653</v>
+        <v>-158.3965809101059</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-155.2808368146219</v>
+        <v>-155.2806295097185</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-153.5293971521257</v>
+        <v>-153.5291972974382</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-152.7485992093595</v>
+        <v>-152.7483961799566</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-152.786785185656</v>
+        <v>-152.7865677690247</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-153.6438010756707</v>
+        <v>-153.6435574665968</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-155.471817668439</v>
+        <v>-155.4715215608281</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-158.6719065781332</v>
+        <v>-158.6714936747231</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-163.7689856363401</v>
+        <v>-163.7681915360286</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-164.5555851376986</v>
+        <v>-164.5548850290224</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-159.3854382887182</v>
+        <v>-159.3851625574225</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-156.0047820656849</v>
+        <v>-156.0045660583657</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-154.0796138546197</v>
+        <v>-154.0793991929521</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-153.1586668772856</v>
+        <v>-153.1584438921707</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-153.0598041137705</v>
+        <v>-153.0595654754933</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-153.7589737132561</v>
+        <v>-153.7587071344255</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-155.3754592191812</v>
+        <v>-155.3751520548095</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-158.2518541853236</v>
+        <v>-158.2514608395857</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-163.044941081066</v>
+        <v>-163.044347622919</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-166.0527961104376</v>
+        <v>-166.0522718944372</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-160.855380501025</v>
+        <v>-160.8552014618055</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-157.0156409386427</v>
+        <v>-157.0154729766558</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-154.7979353162652</v>
+        <v>-154.7977421439305</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-153.6536721316313</v>
+        <v>-153.6534554976738</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-153.3480686077158</v>
+        <v>-153.3478223878457</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-153.8208850667598</v>
+        <v>-153.8205999971582</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-155.147364127778</v>
+        <v>-155.1470295884383</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-157.5897582343701</v>
+        <v>-157.589321709118</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-161.75609862438</v>
+        <v>-161.7553816292697</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-166.9333413923127</v>
+        <v>-166.931805532881</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-163.0587527146476</v>
+        <v>-163.0580992392627</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-158.4757038374876</v>
+        <v>-158.4753217944967</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-155.7877522978361</v>
+        <v>-155.7874110024501</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-154.3087825158576</v>
+        <v>-154.3084293598096</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-153.7132595347918</v>
+        <v>-153.712875485736</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-153.8877060857108</v>
+        <v>-153.8872707130101</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-154.8540915981037</v>
+        <v>-154.8535839510205</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-156.7853509830601</v>
+        <v>-156.7847169377419</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-160.1285504363705</v>
+        <v>-160.1276623383147</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-165.5871926164574</v>
+        <v>-165.585804652198</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-166.2229427309682</v>
+        <v>-166.222858387458</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-160.6890377360808</v>
+        <v>-160.6892011124234</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-157.2316068186313</v>
+        <v>-157.2316568133496</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-155.2511178293492</v>
+        <v>-155.2510687805259</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-154.2572698605079</v>
+        <v>-154.2571507978318</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-154.0529995643214</v>
+        <v>-154.0528200569095</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-154.5962139278545</v>
+        <v>-154.5959741716061</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-155.9723459493486</v>
+        <v>-155.9720249664803</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-158.4543568209136</v>
+        <v>-158.4539032829434</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-162.6950981847384</v>
+        <v>-162.6943205912524</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-168.282194876009</v>
+        <v>-168.2806684260557</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-164.2477929209356</v>
+        <v>-164.247396019564</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-159.4796492594751</v>
+        <v>-159.4794381642862</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-156.7027268077638</v>
+        <v>-156.7025007277815</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-155.1453777030825</v>
+        <v>-155.14512143572</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-154.4578916681824</v>
+        <v>-154.457589896277</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-154.5110938837778</v>
+        <v>-154.5107376900919</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-155.3055461975904</v>
+        <v>-155.3051104239663</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-156.9726949236489</v>
+        <v>-156.9721369519737</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-159.8709118217911</v>
+        <v>-159.8701009517017</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-164.8155268354662</v>
+        <v>-164.8139968115484</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-169.0218875114351</v>
+        <v>-169.0200661174602</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-163.2956671557738</v>
+        <v>-163.2954863116521</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-159.093240523102</v>
+        <v>-159.0931576942755</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-156.6606998388502</v>
+        <v>-156.6605765737937</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-155.3195268605621</v>
+        <v>-155.3193550984613</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-154.7866899263219</v>
+        <v>-154.7864695835054</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-154.9642457739774</v>
+        <v>-154.9639716596083</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-155.872086202595</v>
+        <v>-155.8717448743118</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-157.6618302280851</v>
+        <v>-157.661387368557</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-160.7306804588622</v>
+        <v>-160.7300252914647</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-165.9794652147002</v>
+        <v>-165.978123656183</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-169.5254379753899</v>
+        <v>-169.5237076819917</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-163.4372623077226</v>
+        <v>-163.4368550163863</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-159.369988842666</v>
+        <v>-159.3697042136201</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-157.0127949485187</v>
+        <v>-157.0125080982488</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-155.7071312431993</v>
+        <v>-155.7068115804336</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-155.1829229058931</v>
+        <v>-155.1825589792173</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-155.3455311352312</v>
+        <v>-155.3451106981421</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-156.2113366565327</v>
+        <v>-156.2108382416022</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-157.9190630812738</v>
+        <v>-157.918442993987</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-160.8329843523451</v>
+        <v>-160.8321301145242</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-165.8331041958043</v>
+        <v>-165.8316441223288</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-170.786553956394</v>
+        <v>-170.7850031942153</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-164.7657533309325</v>
+        <v>-164.7657104800149</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-160.3470477133618</v>
+        <v>-160.346981424889</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-157.7895782541783</v>
+        <v>-157.7894283688407</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-156.3330129789866</v>
+        <v>-156.3327908394694</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-155.6662425290497</v>
+        <v>-155.665951130599</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-155.6707106519407</v>
+        <v>-155.6703531389097</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-156.3377640856529</v>
+        <v>-156.3373286486743</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-157.763806577661</v>
+        <v>-157.7632639915609</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-160.2175668163283</v>
+        <v>-160.2168475685901</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-164.3720341347982</v>
+        <v>-164.3709134904265</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-171.00231124572</v>
+        <v>-171.0001695917117</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-167.8306786030036</v>
+        <v>-167.8304752969246</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-162.3341859030179</v>
+        <v>-162.3341114389818</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-159.1887180374207</v>
+        <v>-159.1885512522333</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-157.3470366562321</v>
+        <v>-157.3467837814683</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-156.366098750009</v>
+        <v>-156.3657706880576</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-156.0659571036421</v>
+        <v>-156.0655533634128</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-156.3922068421841</v>
+        <v>-156.3917190388578</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-157.382268513306</v>
+        <v>-157.3816654842637</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-159.1893030979648</v>
+        <v>-159.1885250261126</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-162.1979851776862</v>
+        <v>-162.1968803235221</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-167.3796619032984</v>
+        <v>-167.3776774501306</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-172.7962218189281</v>
+        <v>-172.7940425488602</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-166.2687134874383</v>
+        <v>-166.2688167528536</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-161.733292440904</v>
+        <v>-161.7333153284215</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-159.1091453634336</v>
+        <v>-159.1090424779053</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-157.5740817693149</v>
+        <v>-157.573875446058</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-156.7999653182011</v>
+        <v>-156.799664651872</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-156.6535501810494</v>
+        <v>-156.6531557113788</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-157.1033011110264</v>
+        <v>-157.1028036526793</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-158.2011860160545</v>
+        <v>-158.2005560708511</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-160.1150380407289</v>
+        <v>-160.1142152031898</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-163.2579720260591</v>
+        <v>-163.2567705990289</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-168.6948537637485</v>
+        <v>-168.6926861114986</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-173.8774447557131</v>
+        <v>-173.876097975524</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-166.9413864026878</v>
+        <v>-166.9418491198996</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-162.4849885963894</v>
+        <v>-162.4852018190829</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-159.9027933888572</v>
+        <v>-159.9028192263073</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-158.379824097624</v>
+        <v>-158.37971565193</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-157.5937747942147</v>
+        <v>-157.5935578726817</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-157.410670033769</v>
+        <v>-157.410348250017</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-157.792396686131</v>
+        <v>-157.7919633199492</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-158.7752429620696</v>
+        <v>-158.7746742258217</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-160.4909167539321</v>
+        <v>-160.4901575355073</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-163.258914020074</v>
+        <v>-163.2578231191858</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-167.9008493544399</v>
+        <v>-167.898946570085</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-175.3801257367606</v>
+        <v>-175.3765448249644</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-170.4377166792146</v>
+        <v>-170.438296388421</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-165.0304705852053</v>
+        <v>-165.0308981879633</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-162.0213608222793</v>
+        <v>-162.0215679255591</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-160.2656341000198</v>
+        <v>-160.2656866149671</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-159.3341067267978</v>
+        <v>-159.3340511014752</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-159.0582108800881</v>
+        <v>-159.0580601343331</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-159.3992034535263</v>
+        <v>-159.3989698933347</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-160.4483201048182</v>
+        <v>-160.4480109204605</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-162.813165022694</v>
+        <v>-162.8129079586262</v>
       </c>
     </row>
     <row r="602">
